--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="736">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -159,6 +159,9 @@
     <t>cmip6.atmos.key_properties.overview.model_family</t>
   </si>
   <si>
+    <t>AGCM</t>
+  </si>
+  <si>
     <t>1.1.4 - Basic Approximations</t>
   </si>
   <si>
@@ -171,6 +174,12 @@
     <t>cmip6.atmos.key_properties.overview.basic_approximations</t>
   </si>
   <si>
+    <t>Hydrostatic</t>
+  </si>
+  <si>
+    <t>Primitive equations</t>
+  </si>
+  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
   </si>
   <si>
     <t>cmip6.atmos.key_properties.timestepping.timestep_shortwave_radiative_transfer</t>
+  </si>
+  <si>
+    <t>3 hours</t>
   </si>
   <si>
     <t>1.3.3 - Timestep Longwave Radiative Transfer</t>
@@ -2924,10 +2936,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2936,10 +2948,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2948,12 +2960,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -2970,7 +2982,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -2982,7 +2994,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -2990,7 +3002,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -3007,7 +3019,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -3019,7 +3031,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -3027,7 +3039,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -3044,7 +3056,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -3056,7 +3068,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3064,7 +3076,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -3081,32 +3093,32 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3115,12 +3127,12 @@
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -3137,19 +3149,19 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -3157,7 +3169,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -3174,39 +3186,39 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="8" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>30</v>
@@ -3223,29 +3235,29 @@
     </row>
     <row r="37" spans="2:6" ht="24" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C37" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
       <c r="B40" s="8" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>30</v>
@@ -3262,7 +3274,7 @@
     </row>
     <row r="41" spans="2:6" ht="24" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C41" s="11" t="b">
         <v>1</v>
@@ -3274,17 +3286,17 @@
         <v>42</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
       <c r="B42" s="13" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>30</v>
@@ -3301,7 +3313,7 @@
     </row>
     <row r="45" spans="2:6" ht="24" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C45" s="11" t="b">
         <v>1</v>
@@ -3313,20 +3325,20 @@
         <v>42</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3335,12 +3347,12 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>30</v>
@@ -3357,19 +3369,19 @@
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C53" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
@@ -3377,7 +3389,7 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="8" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>30</v>
@@ -3394,19 +3406,19 @@
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C57" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
@@ -3414,7 +3426,7 @@
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="8" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>30</v>
@@ -3431,19 +3443,19 @@
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1">
       <c r="B61" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C61" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
@@ -3451,7 +3463,7 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>30</v>
@@ -3468,7 +3480,7 @@
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C65" s="11" t="b">
         <v>1</v>
@@ -3480,7 +3492,7 @@
         <v>42</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
@@ -3488,7 +3500,7 @@
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="8" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>30</v>
@@ -3505,7 +3517,7 @@
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C69" s="11" t="b">
         <v>1</v>
@@ -3517,7 +3529,7 @@
         <v>42</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
@@ -3579,10 +3591,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3591,10 +3603,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3603,12 +3615,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -3625,7 +3637,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3637,7 +3649,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3645,10 +3657,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3657,12 +3669,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -3679,19 +3691,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3699,10 +3711,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3711,12 +3723,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -3733,7 +3745,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -3745,17 +3757,17 @@
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -3772,19 +3784,19 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -3792,7 +3804,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -3809,7 +3821,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -3821,20 +3833,20 @@
         <v>35</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3843,12 +3855,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -3865,7 +3877,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -3877,17 +3889,17 @@
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -3904,7 +3916,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -3913,10 +3925,10 @@
         <v>26</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -3926,7 +3938,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -3943,7 +3955,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -3955,7 +3967,7 @@
         <v>35</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -3963,7 +3975,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -3980,7 +3992,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -3992,20 +4004,20 @@
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4014,12 +4026,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -4036,7 +4048,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -4045,10 +4057,10 @@
         <v>26</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -4101,10 +4113,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4113,10 +4125,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4125,12 +4137,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4147,7 +4159,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4159,7 +4171,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4167,10 +4179,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4179,12 +4191,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -4201,7 +4213,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -4213,12 +4225,12 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4383,11 +4395,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -4404,448 +4418,457 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1">
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1">
+      <c r="B28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1">
+      <c r="B31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1">
+      <c r="B32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1">
+      <c r="B35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1">
+      <c r="B36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="B40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1">
+      <c r="B44" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" customHeight="1">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="24" customHeight="1">
+      <c r="B49" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1">
+      <c r="B51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="B52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="24" customHeight="1">
+      <c r="B53" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1">
+      <c r="B55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1">
+      <c r="B60" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" customHeight="1">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" ht="24" customHeight="1">
+      <c r="B65" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="24" customHeight="1">
+      <c r="B68" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="24" customHeight="1">
+      <c r="B69" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="24" customHeight="1">
+      <c r="B71" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="24" customHeight="1">
+      <c r="B72" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1">
-      <c r="B30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1">
-      <c r="B35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1">
-      <c r="B42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1">
-      <c r="B48" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1">
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="B51" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="B52" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="B55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1">
-      <c r="B64" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="24" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="24" customHeight="1">
-      <c r="B68" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="24" customHeight="1">
-      <c r="B71" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="24" customHeight="1">
-      <c r="B72" s="13"/>
+      <c r="F72" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="24" customHeight="1">
+      <c r="B73" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -4855,16 +4878,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>"Primitive equations,Non-hydrostatic,Anelastic,Boussinesq,Hydrostatic,Quasi-hydrostatic,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
       <formula1>"Present day,Modified"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"Related to ice sheets,Related to tectonics,Modified mean,Modified variance if taken into account in model (cf gravity waves)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4888,10 +4911,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4900,10 +4923,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4912,12 +4935,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4934,7 +4957,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4946,7 +4969,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4954,10 +4977,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4966,12 +4989,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -4988,7 +5011,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -5000,17 +5023,17 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -5027,7 +5050,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -5039,17 +5062,17 @@
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -5066,7 +5089,7 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -5078,7 +5101,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -5086,7 +5109,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -5103,29 +5126,29 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -5142,7 +5165,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -5154,7 +5177,7 @@
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -5162,10 +5185,10 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -5174,12 +5197,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -5196,19 +5219,19 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -5255,10 +5278,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5267,10 +5290,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5279,12 +5302,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -5301,7 +5324,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -5313,7 +5336,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -5321,7 +5344,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -5338,19 +5361,19 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -5358,7 +5381,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -5375,7 +5398,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -5387,17 +5410,17 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -5414,52 +5437,52 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5468,12 +5491,12 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -5490,7 +5513,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -5502,17 +5525,17 @@
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -5529,7 +5552,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -5541,17 +5564,17 @@
         <v>35</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -5568,7 +5591,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -5580,20 +5603,20 @@
         <v>35</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -5602,12 +5625,12 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -5624,19 +5647,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -5644,10 +5667,10 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -5656,12 +5679,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -5678,29 +5701,29 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -5717,7 +5740,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -5729,7 +5752,7 @@
         <v>42</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -5737,10 +5760,10 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -5749,12 +5772,12 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -5771,19 +5794,19 @@
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
@@ -5791,7 +5814,7 @@
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>30</v>
@@ -5808,29 +5831,29 @@
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>30</v>
@@ -5847,29 +5870,29 @@
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1">
       <c r="B76" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>30</v>
@@ -5886,7 +5909,7 @@
     </row>
     <row r="79" spans="2:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -5898,7 +5921,7 @@
         <v>42</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="24" customHeight="1">
@@ -5906,10 +5929,10 @@
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -5918,12 +5941,12 @@
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
       <c r="B84" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>30</v>
@@ -5940,19 +5963,19 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
@@ -5960,7 +5983,7 @@
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>30</v>
@@ -5977,29 +6000,29 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>30</v>
@@ -6016,7 +6039,7 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>1</v>
@@ -6028,7 +6051,7 @@
         <v>42</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
@@ -6036,7 +6059,7 @@
     </row>
     <row r="98" spans="2:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>30</v>
@@ -6053,29 +6076,29 @@
     </row>
     <row r="99" spans="2:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>30</v>
@@ -6092,7 +6115,7 @@
     </row>
     <row r="103" spans="2:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
@@ -6104,7 +6127,7 @@
         <v>42</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="24" customHeight="1">
@@ -6175,10 +6198,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6187,10 +6210,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6199,12 +6222,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -6221,52 +6244,52 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6275,12 +6298,12 @@
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -6297,7 +6320,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -6309,7 +6332,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -6317,7 +6340,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -6334,19 +6357,19 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -6354,7 +6377,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -6371,7 +6394,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -6383,17 +6406,17 @@
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -6410,19 +6433,19 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -6430,7 +6453,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -6447,7 +6470,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -6456,10 +6479,10 @@
         <v>26</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -6469,10 +6492,10 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -6481,12 +6504,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -6503,19 +6526,19 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -6523,7 +6546,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -6540,19 +6563,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -6560,7 +6583,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -6577,19 +6600,19 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -6597,10 +6620,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -6609,12 +6632,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -6631,19 +6654,19 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -6651,7 +6674,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -6668,19 +6691,19 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -6688,7 +6711,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -6705,19 +6728,19 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
@@ -6725,10 +6748,10 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6737,12 +6760,12 @@
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>30</v>
@@ -6759,19 +6782,19 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -6779,7 +6802,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>30</v>
@@ -6796,19 +6819,19 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
@@ -6816,7 +6839,7 @@
     </row>
     <row r="82" spans="1:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>30</v>
@@ -6833,19 +6856,19 @@
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
@@ -6853,10 +6876,10 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6865,12 +6888,12 @@
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
       <c r="B88" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>30</v>
@@ -6887,7 +6910,7 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
@@ -6899,7 +6922,7 @@
         <v>42</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
@@ -6907,10 +6930,10 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6919,12 +6942,12 @@
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
       <c r="B96" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>30</v>
@@ -6941,19 +6964,19 @@
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
@@ -6961,7 +6984,7 @@
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>30</v>
@@ -6978,19 +7001,19 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
@@ -6998,7 +7021,7 @@
     </row>
     <row r="106" spans="1:6" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>30</v>
@@ -7015,19 +7038,19 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C107" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
@@ -7035,10 +7058,10 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -7047,12 +7070,12 @@
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
       <c r="B112" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>30</v>
@@ -7069,19 +7092,19 @@
     </row>
     <row r="115" spans="1:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="24" customHeight="1">
@@ -7089,10 +7112,10 @@
     </row>
     <row r="119" spans="1:6" ht="24" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -7101,12 +7124,12 @@
     </row>
     <row r="120" spans="1:6" ht="24" customHeight="1">
       <c r="B120" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>30</v>
@@ -7123,7 +7146,7 @@
     </row>
     <row r="123" spans="1:6" ht="24" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C123" s="11" t="b">
         <v>1</v>
@@ -7135,7 +7158,7 @@
         <v>35</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="24" customHeight="1">
@@ -7143,7 +7166,7 @@
     </row>
     <row r="126" spans="1:6" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>30</v>
@@ -7160,19 +7183,19 @@
     </row>
     <row r="127" spans="1:6" ht="24" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C127" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="24" customHeight="1">
@@ -7180,7 +7203,7 @@
     </row>
     <row r="130" spans="1:6" ht="24" customHeight="1">
       <c r="B130" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>30</v>
@@ -7197,7 +7220,7 @@
     </row>
     <row r="131" spans="1:6" ht="24" customHeight="1">
       <c r="B131" s="10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C131" s="11" t="b">
         <v>1</v>
@@ -7209,17 +7232,17 @@
         <v>42</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="24" customHeight="1">
       <c r="B132" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="24" customHeight="1">
       <c r="B134" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>30</v>
@@ -7236,19 +7259,19 @@
     </row>
     <row r="135" spans="1:6" ht="24" customHeight="1">
       <c r="B135" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C135" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="24" customHeight="1">
@@ -7256,7 +7279,7 @@
     </row>
     <row r="138" spans="1:6" ht="24" customHeight="1">
       <c r="B138" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>30</v>
@@ -7273,7 +7296,7 @@
     </row>
     <row r="139" spans="1:6" ht="24" customHeight="1">
       <c r="B139" s="10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C139" s="11" t="b">
         <v>1</v>
@@ -7282,10 +7305,10 @@
         <v>26</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="24" customHeight="1">
@@ -7295,10 +7318,10 @@
     </row>
     <row r="143" spans="1:6" ht="24" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -7307,12 +7330,12 @@
     </row>
     <row r="144" spans="1:6" ht="24" customHeight="1">
       <c r="B144" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>30</v>
@@ -7329,19 +7352,19 @@
     </row>
     <row r="147" spans="1:6" ht="24" customHeight="1">
       <c r="B147" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C147" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E147" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="24" customHeight="1">
@@ -7349,7 +7372,7 @@
     </row>
     <row r="150" spans="1:6" ht="24" customHeight="1">
       <c r="B150" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>30</v>
@@ -7366,19 +7389,19 @@
     </row>
     <row r="151" spans="1:6" ht="24" customHeight="1">
       <c r="B151" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C151" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="24" customHeight="1">
@@ -7386,7 +7409,7 @@
     </row>
     <row r="154" spans="1:6" ht="24" customHeight="1">
       <c r="B154" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>30</v>
@@ -7403,19 +7426,19 @@
     </row>
     <row r="155" spans="1:6" ht="24" customHeight="1">
       <c r="B155" s="10" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C155" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="24" customHeight="1">
@@ -7423,10 +7446,10 @@
     </row>
     <row r="159" spans="1:6" ht="24" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -7435,12 +7458,12 @@
     </row>
     <row r="160" spans="1:6" ht="24" customHeight="1">
       <c r="B160" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="24" customHeight="1">
       <c r="B162" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>30</v>
@@ -7457,19 +7480,19 @@
     </row>
     <row r="163" spans="1:6" ht="24" customHeight="1">
       <c r="B163" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C163" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="24" customHeight="1">
@@ -7477,7 +7500,7 @@
     </row>
     <row r="166" spans="1:6" ht="24" customHeight="1">
       <c r="B166" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>30</v>
@@ -7494,19 +7517,19 @@
     </row>
     <row r="167" spans="1:6" ht="24" customHeight="1">
       <c r="B167" s="10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C167" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="24" customHeight="1">
@@ -7514,7 +7537,7 @@
     </row>
     <row r="170" spans="1:6" ht="24" customHeight="1">
       <c r="B170" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>30</v>
@@ -7531,19 +7554,19 @@
     </row>
     <row r="171" spans="1:6" ht="24" customHeight="1">
       <c r="B171" s="10" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C171" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="24" customHeight="1">
@@ -7551,10 +7574,10 @@
     </row>
     <row r="175" spans="1:6" ht="24" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -7563,12 +7586,12 @@
     </row>
     <row r="176" spans="1:6" ht="24" customHeight="1">
       <c r="B176" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>30</v>
@@ -7585,19 +7608,19 @@
     </row>
     <row r="179" spans="1:6" ht="24" customHeight="1">
       <c r="B179" s="10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C179" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="24" customHeight="1">
@@ -7605,7 +7628,7 @@
     </row>
     <row r="182" spans="1:6" ht="24" customHeight="1">
       <c r="B182" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>30</v>
@@ -7622,19 +7645,19 @@
     </row>
     <row r="183" spans="1:6" ht="24" customHeight="1">
       <c r="B183" s="10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C183" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="24" customHeight="1">
@@ -7642,7 +7665,7 @@
     </row>
     <row r="186" spans="1:6" ht="24" customHeight="1">
       <c r="B186" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>30</v>
@@ -7659,19 +7682,19 @@
     </row>
     <row r="187" spans="1:6" ht="24" customHeight="1">
       <c r="B187" s="10" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C187" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E187" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="24" customHeight="1">
@@ -7679,10 +7702,10 @@
     </row>
     <row r="191" spans="1:6" ht="24" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -7691,12 +7714,12 @@
     </row>
     <row r="192" spans="1:6" ht="24" customHeight="1">
       <c r="B192" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="24" customHeight="1">
       <c r="B194" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>30</v>
@@ -7713,7 +7736,7 @@
     </row>
     <row r="195" spans="1:6" ht="24" customHeight="1">
       <c r="B195" s="10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C195" s="11" t="b">
         <v>1</v>
@@ -7725,7 +7748,7 @@
         <v>42</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="24" customHeight="1">
@@ -7733,10 +7756,10 @@
     </row>
     <row r="199" spans="1:6" ht="24" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -7745,12 +7768,12 @@
     </row>
     <row r="200" spans="1:6" ht="24" customHeight="1">
       <c r="B200" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="24" customHeight="1">
       <c r="B202" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>30</v>
@@ -7767,19 +7790,19 @@
     </row>
     <row r="203" spans="1:6" ht="24" customHeight="1">
       <c r="B203" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C203" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E203" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="24" customHeight="1">
@@ -7787,7 +7810,7 @@
     </row>
     <row r="206" spans="1:6" ht="24" customHeight="1">
       <c r="B206" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>30</v>
@@ -7804,19 +7827,19 @@
     </row>
     <row r="207" spans="1:6" ht="24" customHeight="1">
       <c r="B207" s="10" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C207" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E207" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="24" customHeight="1">
@@ -7824,7 +7847,7 @@
     </row>
     <row r="210" spans="1:6" ht="24" customHeight="1">
       <c r="B210" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>30</v>
@@ -7841,19 +7864,19 @@
     </row>
     <row r="211" spans="1:6" ht="24" customHeight="1">
       <c r="B211" s="10" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C211" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E211" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="24" customHeight="1">
@@ -7861,10 +7884,10 @@
     </row>
     <row r="215" spans="1:6" ht="24" customHeight="1">
       <c r="A215" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -7873,12 +7896,12 @@
     </row>
     <row r="216" spans="1:6" ht="24" customHeight="1">
       <c r="B216" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="24" customHeight="1">
       <c r="B218" s="8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>30</v>
@@ -7895,19 +7918,19 @@
     </row>
     <row r="219" spans="1:6" ht="24" customHeight="1">
       <c r="B219" s="10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C219" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="24" customHeight="1">
@@ -8038,10 +8061,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8050,10 +8073,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8062,12 +8085,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -8084,7 +8107,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8096,7 +8119,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8104,10 +8127,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8116,12 +8139,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -8138,19 +8161,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -8158,7 +8181,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -8175,29 +8198,29 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -8214,7 +8237,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -8223,10 +8246,10 @@
         <v>26</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -8234,7 +8257,7 @@
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -8251,7 +8274,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -8260,10 +8283,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -8273,10 +8296,10 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -8285,12 +8308,12 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -8307,29 +8330,29 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -8346,29 +8369,29 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -8385,19 +8408,19 @@
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
@@ -8405,7 +8428,7 @@
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -8422,39 +8445,39 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>30</v>
@@ -8471,19 +8494,19 @@
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C53" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
@@ -8491,10 +8514,10 @@
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -8503,12 +8526,12 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>30</v>
@@ -8525,19 +8548,19 @@
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1">
       <c r="B61" s="10" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C61" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
@@ -8545,7 +8568,7 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>30</v>
@@ -8562,19 +8585,19 @@
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C65" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
@@ -8582,7 +8605,7 @@
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>30</v>
@@ -8599,7 +8622,7 @@
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C69" s="11" t="b">
         <v>1</v>
@@ -8611,17 +8634,17 @@
         <v>42</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>30</v>
@@ -8638,19 +8661,19 @@
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1">
       <c r="B73" s="10" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C73" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1">
@@ -8658,7 +8681,7 @@
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1">
       <c r="B76" s="8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>30</v>
@@ -8675,19 +8698,19 @@
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1">
       <c r="B77" s="10" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C77" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1">
@@ -8749,10 +8772,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8761,10 +8784,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8773,12 +8796,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -8795,7 +8818,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8807,7 +8830,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8815,10 +8838,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8827,12 +8850,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -8849,29 +8872,29 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -8888,37 +8911,37 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -8927,12 +8950,12 @@
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>30</v>
@@ -8949,29 +8972,29 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>30</v>
@@ -8988,34 +9011,34 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -9047,10 +9070,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9059,10 +9082,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9071,12 +9094,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -9093,7 +9116,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -9105,7 +9128,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -9113,7 +9136,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -9130,19 +9153,19 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -9150,7 +9173,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -9167,19 +9190,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -9187,7 +9210,7 @@
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -9204,7 +9227,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -9213,10 +9236,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -9226,7 +9249,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -9243,29 +9266,29 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -9282,7 +9305,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -9291,10 +9314,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -9302,7 +9325,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -9319,7 +9342,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -9328,10 +9351,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -9339,7 +9362,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -9356,19 +9379,19 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -9376,10 +9399,10 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -9388,12 +9411,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -9410,19 +9433,19 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -9430,7 +9453,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -9447,19 +9470,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -9467,10 +9490,10 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -9479,12 +9502,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -9501,7 +9524,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -9513,17 +9536,17 @@
         <v>42</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -9540,7 +9563,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -9552,17 +9575,17 @@
         <v>35</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -9579,7 +9602,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -9588,10 +9611,10 @@
         <v>26</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -9599,7 +9622,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -9616,37 +9639,37 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -9655,12 +9678,12 @@
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1">
       <c r="B73" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="8" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>30</v>
@@ -9677,7 +9700,7 @@
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
       <c r="B76" s="10" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C76" s="11" t="b">
         <v>1</v>
@@ -9689,7 +9712,7 @@
         <v>42</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="24" customHeight="1">
@@ -9697,7 +9720,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>30</v>
@@ -9714,7 +9737,7 @@
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="10" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C80" s="11" t="b">
         <v>1</v>
@@ -9726,7 +9749,7 @@
         <v>35</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="24" customHeight="1">
@@ -9734,7 +9757,7 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>30</v>
@@ -9751,7 +9774,7 @@
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
       <c r="B84" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C84" s="11" t="b">
         <v>1</v>
@@ -9760,10 +9783,10 @@
         <v>26</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="24" customHeight="1">
@@ -9771,7 +9794,7 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>30</v>
@@ -9788,19 +9811,19 @@
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
       <c r="B88" s="10" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C88" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="24" customHeight="1">
@@ -9868,10 +9891,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9880,10 +9903,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9892,12 +9915,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -9914,7 +9937,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -9926,7 +9949,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -9934,10 +9957,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9946,12 +9969,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -9968,19 +9991,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -9988,7 +10011,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -10005,7 +10028,7 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -10017,7 +10040,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
@@ -10025,10 +10048,10 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -10037,12 +10060,12 @@
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -10059,7 +10082,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -10071,7 +10094,7 @@
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -10079,7 +10102,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -10096,7 +10119,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -10105,10 +10128,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -10116,7 +10139,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -10133,7 +10156,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -10142,10 +10165,10 @@
         <v>26</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -10153,7 +10176,7 @@
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -10170,7 +10193,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -10179,10 +10202,10 @@
         <v>26</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -10190,10 +10213,10 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -10202,12 +10225,12 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -10224,7 +10247,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -10233,10 +10256,10 @@
         <v>26</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -10244,7 +10267,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -10261,7 +10284,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -10273,7 +10296,7 @@
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -10281,7 +10304,7 @@
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -10298,7 +10321,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -10307,10 +10330,10 @@
         <v>26</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
@@ -10318,7 +10341,7 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -10335,7 +10358,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -10344,10 +10367,10 @@
         <v>26</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -10355,10 +10378,10 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -10367,12 +10390,12 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -10389,7 +10412,7 @@
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -10401,7 +10424,7 @@
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
@@ -10409,7 +10432,7 @@
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>30</v>
@@ -10426,19 +10449,19 @@
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>GFDL-ESM2M</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1096">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -762,7 +762,7 @@
     <t>cmip6.atmos.dynamical_core.prognostic_variables</t>
   </si>
   <si>
-    <t>Other: vapour/solid/liquid</t>
+    <t>Clouds</t>
   </si>
   <si>
     <t>Surface pressure</t>
@@ -795,9 +795,6 @@
     <t>Total water moments</t>
   </si>
   <si>
-    <t>Clouds</t>
-  </si>
-  <si>
     <t>Radiation</t>
   </si>
   <si>
@@ -1188,27 +1185,30 @@
     <t>cmip6.atmos.radiation.aerosols</t>
   </si>
   <si>
+    <t>Other: black carbon / soot</t>
+  </si>
+  <si>
+    <t>Sulphate</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Sea salt</t>
+  </si>
+  <si>
+    <t>Dust</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
     <t>BC</t>
   </si>
   <si>
-    <t>Sulphate</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>Sea salt</t>
-  </si>
-  <si>
-    <t>Dust</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
     <t>SOA</t>
   </si>
   <si>
@@ -2286,15 +2286,15 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_cloud_microphysics.processes</t>
   </si>
   <si>
+    <t>Cloud ice</t>
+  </si>
+  <si>
     <t>Mixed phase</t>
   </si>
   <si>
     <t>Cloud droplets</t>
   </si>
   <si>
-    <t>Cloud ice</t>
-  </si>
-  <si>
     <t>Ice nucleation</t>
   </si>
   <si>
@@ -3309,10 +3309,10 @@
     <t>cmip6.atmos.natural_forcing.volcanoes_treatment.volcanoes_implementation</t>
   </si>
   <si>
+    <t>Stratospheric aerosols optical thickness</t>
+  </si>
+  <si>
     <t>High frequency solar constant anomaly</t>
-  </si>
-  <si>
-    <t>Stratospheric aerosols optical thickness</t>
   </si>
 </sst>
 </file>
@@ -4874,7 +4874,7 @@
         <v>176</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>996</v>
@@ -5052,7 +5052,7 @@
         <v>176</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE78" s="6" t="s">
         <v>996</v>
@@ -5543,12 +5543,14 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="B77" s="11"/>
+      <c r="B77" s="11" t="s">
+        <v>1094</v>
+      </c>
       <c r="AA77" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AB77" s="6" t="s">
         <v>1094</v>
-      </c>
-      <c r="AB77" s="6" t="s">
-        <v>1095</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>67</v>
@@ -6719,7 +6721,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD108"/>
+  <dimension ref="A1:XFD110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6906,10 +6908,10 @@
         <v>255</v>
       </c>
       <c r="AK20" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL20" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="AL20" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="AM20" s="6" t="s">
         <v>67</v>
@@ -6917,7 +6919,7 @@
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AA21" s="6" t="s">
         <v>246</v>
@@ -6950,10 +6952,10 @@
         <v>255</v>
       </c>
       <c r="AK21" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL21" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="AL21" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="AM21" s="6" t="s">
         <v>67</v>
@@ -6961,7 +6963,7 @@
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AA22" s="6" t="s">
         <v>246</v>
@@ -6994,10 +6996,10 @@
         <v>255</v>
       </c>
       <c r="AK22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL22" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="AL22" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="AM22" s="6" t="s">
         <v>67</v>
@@ -7005,7 +7007,7 @@
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AA23" s="6" t="s">
         <v>246</v>
@@ -7038,10 +7040,10 @@
         <v>255</v>
       </c>
       <c r="AK23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL23" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="AL23" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="AM23" s="6" t="s">
         <v>67</v>
@@ -7049,7 +7051,7 @@
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AA24" s="6" t="s">
         <v>246</v>
@@ -7082,622 +7084,710 @@
         <v>255</v>
       </c>
       <c r="AK24" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL24" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="AL24" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="AM24" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="24" customHeight="1">
-      <c r="A27" s="12" t="s">
+    <row r="25" spans="1:39" ht="24" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM26" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="24" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B27" s="12" t="s">
+    </row>
+    <row r="30" spans="1:39" ht="24" customHeight="1">
+      <c r="B30" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="24" customHeight="1">
-      <c r="B28" s="13" t="s">
+    <row r="32" spans="1:39" ht="24" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="30" spans="1:39" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="9" t="s">
+    </row>
+    <row r="33" spans="1:29" ht="24" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="31" spans="1:39" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
+      <c r="C33" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1">
+      <c r="A37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="24" customHeight="1">
+      <c r="B38" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
+      <c r="A41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1">
+      <c r="B42" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1">
+      <c r="A45" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="B46" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B49" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="24" customHeight="1">
+      <c r="B50" s="11"/>
+      <c r="AA50" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" ht="24" customHeight="1">
-      <c r="B32" s="11" t="s">
+      <c r="AB50" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="AA32" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC32" s="6" t="s">
+      <c r="AC50" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="14" t="s">
+    <row r="53" spans="1:29" ht="24" customHeight="1">
+      <c r="A53" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="24" customHeight="1">
+      <c r="B54" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="24" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="14" t="s">
+      <c r="B57" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="24" customHeight="1">
+      <c r="B58" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="24" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="24" customHeight="1">
+      <c r="A61" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
-      <c r="AA48" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB48" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC48" s="6" t="s">
+      <c r="B61" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="24" customHeight="1">
+      <c r="B62" s="11"/>
+      <c r="AA62" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC62" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="24" customHeight="1">
-      <c r="A51" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1">
-      <c r="B52" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="24" customHeight="1">
-      <c r="A54" s="9" t="s">
+    <row r="65" spans="1:39" ht="24" customHeight="1">
+      <c r="A65" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" ht="24" customHeight="1">
+      <c r="B66" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="24" customHeight="1">
-      <c r="A55" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1">
-      <c r="B56" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="24" customHeight="1">
-      <c r="A59" s="14" t="s">
+    </row>
+    <row r="69" spans="1:39" ht="24" customHeight="1">
+      <c r="A69" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="24" customHeight="1">
-      <c r="B60" s="11"/>
-      <c r="AA60" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB60" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC60" s="6" t="s">
+      <c r="B69" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" ht="24" customHeight="1">
+      <c r="B70" s="11"/>
+      <c r="AA70" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE70" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF70" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="24" customHeight="1">
-      <c r="A63" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="24" customHeight="1">
-      <c r="B64" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39" ht="24" customHeight="1">
-      <c r="A67" s="14" t="s">
+    <row r="72" spans="1:39" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
-      <c r="AA68" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB68" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC68" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD68" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE68" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF68" s="6" t="s">
+      <c r="B73" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" ht="24" customHeight="1">
+      <c r="B74" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" ht="24" customHeight="1">
+      <c r="B75" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA75" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD75" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE75" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF75" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG75" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH75" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI75" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ75" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AK75" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL75" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM75" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
+    <row r="77" spans="1:39" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" ht="24" customHeight="1">
+      <c r="B79" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" ht="24" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA80" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC80" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="24" customHeight="1">
+      <c r="B84" s="11"/>
+      <c r="AA84" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB84" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC84" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="24" customHeight="1">
+      <c r="A87" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="24" customHeight="1">
+      <c r="B88" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="24" customHeight="1">
+      <c r="B92" s="11"/>
+      <c r="AA92" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB92" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC92" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD92" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="24" customHeight="1">
+      <c r="A94" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:39" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
+    </row>
+    <row r="95" spans="1:30" ht="24" customHeight="1">
+      <c r="A95" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:39" ht="24" customHeight="1">
-      <c r="B72" s="10" t="s">
+      <c r="B95" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="24" customHeight="1">
+      <c r="B96" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="24" customHeight="1">
-      <c r="B73" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA73" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB73" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC73" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD73" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE73" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF73" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="AG73" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AH73" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI73" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ73" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="AK73" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AL73" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AM73" s="6" t="s">
+    <row r="97" spans="1:33" ht="24" customHeight="1">
+      <c r="B97" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA97" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB97" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC97" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD97" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE97" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF97" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
+    <row r="99" spans="1:33" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" ht="24" customHeight="1">
+      <c r="B101" s="11"/>
+      <c r="AA101" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB101" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC101" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD101" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE101" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:39" ht="24" customHeight="1">
-      <c r="A76" s="14" t="s">
+    </row>
+    <row r="104" spans="1:33" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:39" ht="24" customHeight="1">
-      <c r="B77" s="10" t="s">
+      <c r="B104" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" ht="24" customHeight="1">
+      <c r="B105" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA78" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB78" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC78" s="6" t="s">
+    <row r="106" spans="1:33" ht="24" customHeight="1">
+      <c r="B106" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA106" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB106" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC106" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD106" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE106" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF106" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG106" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
+    <row r="108" spans="1:33" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" ht="24" customHeight="1">
-      <c r="A81" s="14" t="s">
+    </row>
+    <row r="109" spans="1:33" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B109" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" ht="24" customHeight="1">
+      <c r="B110" s="11"/>
+      <c r="AA110" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="82" spans="1:32" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
-      <c r="AA82" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB82" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC82" s="6" t="s">
+      <c r="AB110" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1">
-      <c r="A85" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" ht="24" customHeight="1">
-      <c r="B86" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:32" ht="24" customHeight="1">
-      <c r="B90" s="11"/>
-      <c r="AA90" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB90" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC90" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD90" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:32" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" ht="24" customHeight="1">
-      <c r="A93" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" ht="24" customHeight="1">
-      <c r="B94" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1">
-      <c r="B95" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA95" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB95" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC95" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD95" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="AE95" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AF95" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:33" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:33" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" ht="24" customHeight="1">
-      <c r="B99" s="11"/>
-      <c r="AA99" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB99" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC99" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD99" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE99" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:33" ht="24" customHeight="1">
-      <c r="A101" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:33" ht="24" customHeight="1">
-      <c r="A102" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="103" spans="1:33" ht="24" customHeight="1">
-      <c r="B103" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:33" ht="24" customHeight="1">
-      <c r="B104" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA104" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB104" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC104" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD104" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE104" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF104" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG104" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:33" ht="24" customHeight="1">
-      <c r="A106" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="107" spans="1:33" ht="24" customHeight="1">
-      <c r="A107" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="108" spans="1:33" ht="24" customHeight="1">
-      <c r="B108" s="11"/>
-      <c r="AA108" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB108" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AJ15</formula1>
     </dataValidation>
@@ -7716,41 +7806,47 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AM24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AC32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
-      <formula1>AA48:AC48</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
-      <formula1>AA60:AC60</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AF68</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AM73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>AA78:AC78</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
-      <formula1>AA82:AC82</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
-      <formula1>AA90:AD90</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>AA95:AF95</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
-      <formula1>AA99:AE99</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104">
-      <formula1>AA104:AG104</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
-      <formula1>AA108:AB108</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AM25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AM26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AC34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+      <formula1>AA50:AC50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+      <formula1>AA62:AC62</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>AA70:AF70</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+      <formula1>AA75:AM75</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+      <formula1>AA80:AC80</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
+      <formula1>AA84:AC84</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+      <formula1>AA92:AD92</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>AA97:AF97</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
+      <formula1>AA101:AE101</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106">
+      <formula1>AA106:AG106</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
+      <formula1>AA110:AB110</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7773,20 +7869,20 @@
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7797,10 +7893,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
@@ -7808,7 +7904,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7819,10 +7915,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
@@ -7835,10 +7931,10 @@
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
@@ -7846,10 +7942,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="24" customHeight="1">
@@ -7859,28 +7955,28 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA16" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="AB16" s="6" t="s">
+      <c r="AC16" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AD16" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AE16" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="AE16" s="6" t="s">
+      <c r="AF16" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AF16" s="6" t="s">
+      <c r="AG16" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="AH16" s="6" t="s">
         <v>394</v>
@@ -7906,28 +8002,28 @@
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE17" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="AA17" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE17" s="6" t="s">
+      <c r="AF17" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AF17" s="6" t="s">
+      <c r="AG17" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="AH17" s="6" t="s">
         <v>394</v>
@@ -7953,28 +8049,28 @@
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AG18" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="AH18" s="6" t="s">
         <v>394</v>
@@ -8000,28 +8096,28 @@
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD19" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AE19" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>394</v>
@@ -8047,28 +8143,28 @@
     </row>
     <row r="20" spans="1:40" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB20" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="AA20" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AC20" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AD20" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AE20" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="AE20" s="6" t="s">
+      <c r="AF20" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AG20" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="AH20" s="6" t="s">
         <v>394</v>
@@ -9856,7 +9952,7 @@
         <v>632</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="24" customHeight="1">
@@ -10011,7 +10107,7 @@
         <v>662</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
@@ -10302,7 +10398,7 @@
         <v>702</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -10526,7 +10622,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD38"/>
+  <dimension ref="A1:XFD40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10618,7 +10714,7 @@
         <v>733</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
@@ -10719,7 +10815,7 @@
         <v>747</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -10763,15 +10859,17 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>753</v>
+      </c>
       <c r="AA38" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AC38" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>755</v>
       </c>
       <c r="AD38" s="6" t="s">
         <v>756</v>
@@ -10792,8 +10890,72 @@
         <v>67</v>
       </c>
     </row>
+    <row r="39" spans="1:35" ht="24" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="24" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AE24</formula1>
     </dataValidation>
@@ -10802,6 +10964,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>AA38:AI38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>AA39:AI39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>AA40:AI40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11018,7 +11186,7 @@
         <v>789</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AD30" s="6" t="s">
         <v>790</v>

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1099">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -225,7 +225,10 @@
     <t>AGCM</t>
   </si>
   <si>
-    <t>ARCM</t>
+    <t>AGCM: Atmospheric General Circulation Model</t>
+  </si>
+  <si>
+    <t>ARCM: Atmospheric Regional Climate Model</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -408,7 +411,7 @@
     <t>Fixed: present day</t>
   </si>
   <si>
-    <t>Fixed: modified</t>
+    <t>Fixed: modified: provide details of modification below</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.2 </t>
@@ -669,13 +672,13 @@
     <t>cmip6.atmos.grid.discretisation.vertical.coordinate_type</t>
   </si>
   <si>
-    <t>Isobaric</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>Hybrid sigma-pressure</t>
+    <t>Isobaric: vertical coordinate on pressure levels</t>
+  </si>
+  <si>
+    <t>Sigma: allows vertical coordinate to follow model terrain</t>
+  </si>
+  <si>
+    <t>Hybrid sigma-pressure: sigma system near terrain and isobaric above</t>
   </si>
   <si>
     <t>Hybrid pressure</t>
@@ -1206,25 +1209,25 @@
     <t>Organic</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>SOA</t>
-  </si>
-  <si>
-    <t>POM</t>
+    <t>BC: black carbon / soot</t>
+  </si>
+  <si>
+    <t>SOA: secondary organic aerosols</t>
+  </si>
+  <si>
+    <t>POM: particulate organic matter</t>
   </si>
   <si>
     <t>Polar stratospheric ice</t>
   </si>
   <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>STS</t>
+    <t>NAT: nitric acid trihydrate</t>
+  </si>
+  <si>
+    <t>NAD: nitric acid dihydrate</t>
+  </si>
+  <si>
+    <t>STS: supercooled ternary solution aerosol particle</t>
   </si>
   <si>
     <t>4.2.1</t>
@@ -1284,10 +1287,10 @@
     <t>Layer interaction</t>
   </si>
   <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Adaptive</t>
+    <t>Bulk: highly parameterised methods that use bulk expressions</t>
+  </si>
+  <si>
+    <t>Adaptive: exploits spatial and temporal correlations in optical characteristics</t>
   </si>
   <si>
     <t>Multi-stream</t>
@@ -1344,28 +1347,28 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.greenhouse_gas_complexity</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>CFC-11 eq</t>
-  </si>
-  <si>
-    <t>CFC-12 eq</t>
-  </si>
-  <si>
-    <t>HFC-134a eq</t>
-  </si>
-  <si>
-    <t>Explicit ODSs</t>
-  </si>
-  <si>
-    <t>Explicit other fluorinated gases</t>
+    <t>CO2: Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>CH4: Methane</t>
+  </si>
+  <si>
+    <t>N2O: Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>CFC-11 eq: Summarize the effect of non CO2, CH4, N2O and CFC-12 gases with an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>CFC-12 eq: Summarize the radiative effect of the Ozone Depleating Substances, ODSs, with a CFC-12 equivalence concentration</t>
+  </si>
+  <si>
+    <t>HFC-134a eq: Summarize the radiative effect of other fluorinated gases with a HFC-134a equivalence concentration</t>
+  </si>
+  <si>
+    <t>Explicit ODSs: Explicit representation of Ozone Depleting Substances e.g. CFCs, HCFCs and Halons</t>
+  </si>
+  <si>
+    <t>Explicit other fluorinated gases: Explicit representation of other fluorinated gases e.g. HFCs and PFCs</t>
   </si>
   <si>
     <t>O3</t>
@@ -1386,55 +1389,55 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.ODS</t>
   </si>
   <si>
-    <t>CFC-12</t>
-  </si>
-  <si>
-    <t>CFC-11</t>
-  </si>
-  <si>
-    <t>CFC-113</t>
-  </si>
-  <si>
-    <t>CFC-114</t>
-  </si>
-  <si>
-    <t>CFC-115</t>
-  </si>
-  <si>
-    <t>HCFC-22</t>
-  </si>
-  <si>
-    <t>HCFC-141b</t>
-  </si>
-  <si>
-    <t>HCFC-142b</t>
-  </si>
-  <si>
-    <t>Halon-1211</t>
-  </si>
-  <si>
-    <t>Halon-1301</t>
-  </si>
-  <si>
-    <t>Halon-2402</t>
-  </si>
-  <si>
-    <t>Methyl chloroform</t>
-  </si>
-  <si>
-    <t>Carbon tetrachloride</t>
-  </si>
-  <si>
-    <t>Methyl chloride</t>
-  </si>
-  <si>
-    <t>Methylene chloride</t>
-  </si>
-  <si>
-    <t>Chloroform</t>
-  </si>
-  <si>
-    <t>Methyl bromide</t>
+    <t>CFC-12: CFC</t>
+  </si>
+  <si>
+    <t>CFC-11: CFC</t>
+  </si>
+  <si>
+    <t>CFC-113: CFC</t>
+  </si>
+  <si>
+    <t>CFC-114: CFC</t>
+  </si>
+  <si>
+    <t>CFC-115: CFC</t>
+  </si>
+  <si>
+    <t>HCFC-22: HCFC</t>
+  </si>
+  <si>
+    <t>HCFC-141b: HCFC</t>
+  </si>
+  <si>
+    <t>HCFC-142b: HCFC</t>
+  </si>
+  <si>
+    <t>Halon-1211: halon</t>
+  </si>
+  <si>
+    <t>Halon-1301: halon</t>
+  </si>
+  <si>
+    <t>Halon-2402: halon</t>
+  </si>
+  <si>
+    <t>Methyl chloroform: CH3CCl3</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride: CCl4</t>
+  </si>
+  <si>
+    <t>Methyl chloride: CH3Cl</t>
+  </si>
+  <si>
+    <t>Methylene chloride: CH2Cl2</t>
+  </si>
+  <si>
+    <t>Chloroform: CHCl3</t>
+  </si>
+  <si>
+    <t>Methyl bromide: Ch3Br</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.1.3 </t>
@@ -1449,64 +1452,64 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.other_flourinated_gases</t>
   </si>
   <si>
-    <t>HFC-134a</t>
-  </si>
-  <si>
-    <t>HFC-23</t>
-  </si>
-  <si>
-    <t>HFC-32</t>
-  </si>
-  <si>
-    <t>HFC-125</t>
-  </si>
-  <si>
-    <t>HFC-143a</t>
-  </si>
-  <si>
-    <t>HFC-152a</t>
-  </si>
-  <si>
-    <t>HFC-227ea</t>
-  </si>
-  <si>
-    <t>HFC-236fa</t>
-  </si>
-  <si>
-    <t>HFC-245fa</t>
-  </si>
-  <si>
-    <t>HFC-365mfc</t>
-  </si>
-  <si>
-    <t>HFC-43-10mee</t>
-  </si>
-  <si>
-    <t>CF4</t>
-  </si>
-  <si>
-    <t>C2F6</t>
-  </si>
-  <si>
-    <t>C3F8</t>
-  </si>
-  <si>
-    <t>C4F10</t>
-  </si>
-  <si>
-    <t>C5F12</t>
-  </si>
-  <si>
-    <t>C6F14</t>
-  </si>
-  <si>
-    <t>C7F16</t>
-  </si>
-  <si>
-    <t>C8F18</t>
-  </si>
-  <si>
-    <t>C-C4F8</t>
+    <t>HFC-134a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-23: HFC</t>
+  </si>
+  <si>
+    <t>HFC-32: HFC</t>
+  </si>
+  <si>
+    <t>HFC-125: HFC</t>
+  </si>
+  <si>
+    <t>HFC-143a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-152a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-227ea: HFC</t>
+  </si>
+  <si>
+    <t>HFC-236fa: HFC</t>
+  </si>
+  <si>
+    <t>HFC-245fa: HFC</t>
+  </si>
+  <si>
+    <t>HFC-365mfc: HFC</t>
+  </si>
+  <si>
+    <t>HFC-43-10mee: HFC</t>
+  </si>
+  <si>
+    <t>CF4: PFC</t>
+  </si>
+  <si>
+    <t>C2F6: PFC</t>
+  </si>
+  <si>
+    <t>C3F8: PFC</t>
+  </si>
+  <si>
+    <t>C4F10: PFC</t>
+  </si>
+  <si>
+    <t>C5F12: PFC</t>
+  </si>
+  <si>
+    <t>C6F14: PFC</t>
+  </si>
+  <si>
+    <t>C7F16: PFC</t>
+  </si>
+  <si>
+    <t>C8F18: PFC</t>
+  </si>
+  <si>
+    <t>C-C4F8: PFC</t>
   </si>
   <si>
     <t>NF3</t>
@@ -1539,16 +1542,16 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.physical_representation</t>
   </si>
   <si>
-    <t>Bi-modal size distribution</t>
-  </si>
-  <si>
-    <t>Ensemble of ice crystals</t>
-  </si>
-  <si>
-    <t>Mean projected area</t>
-  </si>
-  <si>
-    <t>Ice water path</t>
+    <t>Bi-modal size distribution: small mode diameters: a few tens of microns, large mode diameters: typically hundreds of microns</t>
+  </si>
+  <si>
+    <t>Ensemble of ice crystals: complex shapes represented with an ensemble of symmetric shapes</t>
+  </si>
+  <si>
+    <t>Mean projected area: randomly oriented irregular ice crystals present a greater mean projected area than spheres</t>
+  </si>
+  <si>
+    <t>Ice water path: Integrated ice water path through the cloud kg m-2</t>
   </si>
   <si>
     <t>Crystal asymmetry</t>
@@ -1572,16 +1575,16 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.optical_methods</t>
   </si>
   <si>
-    <t>T-matrix</t>
-  </si>
-  <si>
-    <t>Geometric optics</t>
-  </si>
-  <si>
-    <t>Finite difference time domain (FDTD)</t>
-  </si>
-  <si>
-    <t>Mie theory</t>
+    <t>T-matrix: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Geometric optics: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Finite difference time domain (FDTD): For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Mie theory: For spherical particles</t>
   </si>
   <si>
     <t>Anomalous diffraction approximation</t>
@@ -1605,7 +1608,7 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_liquid.physical_representation</t>
   </si>
   <si>
-    <t>Cloud droplet number concentration</t>
+    <t>Cloud droplet number concentration: CDNC</t>
   </si>
   <si>
     <t>Effective cloud droplet radii</t>
@@ -1614,7 +1617,7 @@
     <t>Droplet size distribution</t>
   </si>
   <si>
-    <t>Liquid water path</t>
+    <t>Liquid water path: Integrated liquid water path through the cloud kg m-2</t>
   </si>
   <si>
     <t>4.5.1.2 *</t>
@@ -1647,10 +1650,10 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_inhomogeneity.cloud_inhomogeneity</t>
   </si>
   <si>
-    <t>Monte Carlo Independent Column Approximation</t>
-  </si>
-  <si>
-    <t>Triplecloud</t>
+    <t>Monte Carlo Independent Column Approximation: McICA</t>
+  </si>
+  <si>
+    <t>Triplecloud: Regions of clear sky, optically thin cloud and optically thick cloud, Shonk et al 2010</t>
   </si>
   <si>
     <t>Analytic</t>
@@ -1689,7 +1692,7 @@
     <t>Aspect ratio</t>
   </si>
   <si>
-    <t>Mixing state</t>
+    <t>Mixing state: For shortwave radiative interaction</t>
   </si>
   <si>
     <t>4.7.1.2 *</t>
@@ -1938,7 +1941,7 @@
     <t>Holtslag-Boville</t>
   </si>
   <si>
-    <t>EDMF</t>
+    <t>EDMF: Combined Eddy Diffusivity Mass-Flux</t>
   </si>
   <si>
     <t>5.2.1.2 *</t>
@@ -1968,7 +1971,7 @@
     <t>Monin-Obukhov similarity</t>
   </si>
   <si>
-    <t>Coastal Buddy Scheme</t>
+    <t>Coastal Buddy Scheme: separate components for coastal near surface winds over ocean and land</t>
   </si>
   <si>
     <t>Coupled with convection</t>
@@ -1977,7 +1980,7 @@
     <t>Coupled with gravity waves</t>
   </si>
   <si>
-    <t>Depth capped at cloud base</t>
+    <t>Depth capped at cloud base: boundary layer capped at cloud base when convection is diagnosed</t>
   </si>
   <si>
     <t>5.2.1.3 *</t>
@@ -2040,7 +2043,7 @@
     <t>Adjustment</t>
   </si>
   <si>
-    <t>Plume ensemble</t>
+    <t>Plume ensemble: Zhang-McFarlane</t>
   </si>
   <si>
     <t>5.3.1.3 *</t>
@@ -2052,16 +2055,19 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.scheme_method</t>
   </si>
   <si>
-    <t>CAPE</t>
-  </si>
-  <si>
-    <t>Ensemble</t>
-  </si>
-  <si>
-    <t>CAPE/WFN based</t>
-  </si>
-  <si>
-    <t>TKE/CIN based</t>
+    <t>CAPE: Mass flux determined by CAPE, convectively available potential energy.</t>
+  </si>
+  <si>
+    <t>Bulk: A bulk mass flux scheme is used</t>
+  </si>
+  <si>
+    <t>Ensemble: Summation over an ensemble of convective clouds with differing characteristics</t>
+  </si>
+  <si>
+    <t>CAPE/WFN based: CAPE-Cloud Work Function: Based on the quasi-equilibrium of the free troposphere</t>
+  </si>
+  <si>
+    <t>TKE/CIN based: TKE-Convective Inhibition: Based on the quasi-equilibrium of the boundary layer</t>
   </si>
   <si>
     <t>5.3.1.4 *</t>
@@ -2169,7 +2175,7 @@
     <t>Included in boundary layer turbulence</t>
   </si>
   <si>
-    <t>Separate diagnosis</t>
+    <t>Separate diagnosis: Deep and Shallow convection schemes use different thermodynamic closure criteria</t>
   </si>
   <si>
     <t>5.4.1.4 *</t>
@@ -2400,7 +2406,10 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>Ice crystal number concentration</t>
+    <t>Cloud droplet number concentration: To document the use of two-moment cloud microphysics schemes</t>
+  </si>
+  <si>
+    <t>Ice crystal number concentration: To document the use of two-moment cloud microphysics schemes</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.7 </t>
@@ -2460,7 +2469,7 @@
     <t>Maximum</t>
   </si>
   <si>
-    <t>Maximum-random</t>
+    <t>Maximum-random: combination of maximum and random overlap between clouds</t>
   </si>
   <si>
     <t>Exponential</t>
@@ -2910,7 +2919,7 @@
     <t>Effect on lifting</t>
   </si>
   <si>
-    <t>Enhanced topography</t>
+    <t>Enhanced topography: To enhance the generation of long waves in the atmosphere</t>
   </si>
   <si>
     <t>9.2.1</t>
@@ -3135,13 +3144,13 @@
     <t>cmip6.atmos.natural_forcing.solar_pathways.pathways</t>
   </si>
   <si>
-    <t>SW radiation</t>
-  </si>
-  <si>
-    <t>Precipitating energetic particles</t>
-  </si>
-  <si>
-    <t>Cosmic rays</t>
+    <t>SW radiation: Shortwave solar spectral irradiance.</t>
+  </si>
+  <si>
+    <t>Precipitating energetic particles: Precipitating energetic particles from the sun (predominantly protons) and the magnetosphere (predominantly electrons) affect the ionization levels in the polar middle and upper atmosphere, leading to significant changes</t>
+  </si>
+  <si>
+    <t>Cosmic rays: Cosmic rays are the main source of ionization in the troposphere and lower stratosphere.</t>
   </si>
   <si>
     <t>10.3.1</t>
@@ -3973,20 +3982,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3997,10 +4006,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4008,7 +4017,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4019,10 +4028,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4035,23 +4044,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4059,10 +4068,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4073,24 +4082,24 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4098,43 +4107,43 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4142,41 +4151,41 @@
         <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -4184,21 +4193,21 @@
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4206,21 +4215,21 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4228,34 +4237,34 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4263,10 +4272,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -4274,41 +4283,41 @@
         <v>62</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -4316,21 +4325,21 @@
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -4338,23 +4347,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -4362,30 +4371,30 @@
         <v>62</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
@@ -4393,10 +4402,10 @@
         <v>62</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -4407,13 +4416,13 @@
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4476,20 +4485,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4500,10 +4509,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -4511,7 +4520,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4522,10 +4531,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -4538,10 +4547,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -4549,30 +4558,30 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4580,30 +4589,30 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4611,10 +4620,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4624,37 +4633,37 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>45</v>
@@ -4665,10 +4674,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4676,10 +4685,10 @@
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -4687,10 +4696,10 @@
         <v>62</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -4700,79 +4709,79 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="AA39" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="AA39" s="6" t="s">
-        <v>973</v>
-      </c>
       <c r="AB39" s="6" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -4780,10 +4789,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
@@ -4793,24 +4802,24 @@
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -4818,35 +4827,35 @@
         <v>62</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="AA48" s="6" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="24" customHeight="1">
@@ -4854,51 +4863,51 @@
         <v>62</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="24" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>45</v>
@@ -4909,10 +4918,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="24" customHeight="1">
@@ -4920,10 +4929,10 @@
     </row>
     <row r="62" spans="1:32" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="24" customHeight="1">
@@ -4931,10 +4940,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="24" customHeight="1">
@@ -4945,24 +4954,24 @@
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="B65" s="11"/>
       <c r="AA65" s="6" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
@@ -4970,10 +4979,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -4984,18 +4993,18 @@
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="B70" s="11"/>
       <c r="AA70" s="6" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
@@ -5003,30 +5012,30 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
@@ -5034,31 +5043,31 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AE78" s="6" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="AF78" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5123,20 +5132,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5147,10 +5156,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5158,7 +5167,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5169,10 +5178,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5185,23 +5194,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5209,10 +5218,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5223,37 +5232,37 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -5261,40 +5270,40 @@
         <v>62</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -5302,10 +5311,10 @@
     </row>
     <row r="34" spans="1:28" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
@@ -5313,36 +5322,36 @@
         <v>46</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="24" customHeight="1">
@@ -5350,40 +5359,40 @@
         <v>62</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
@@ -5393,10 +5402,10 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
@@ -5404,10 +5413,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5415,10 +5424,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -5426,56 +5435,56 @@
         <v>62</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -5485,23 +5494,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -5509,10 +5518,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -5525,10 +5534,10 @@
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -5536,24 +5545,24 @@
         <v>62</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5814,21 +5823,21 @@
         <v>65</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
@@ -5836,10 +5845,10 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
@@ -5849,75 +5858,75 @@
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AB25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="AF25" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AA26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="AF26" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -5925,10 +5934,10 @@
         <v>46</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -5936,10 +5945,10 @@
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5947,10 +5956,10 @@
         <v>46</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -5958,10 +5967,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -5969,10 +5978,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -5980,21 +5989,21 @@
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -6002,21 +6011,21 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6024,34 +6033,34 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -6061,21 +6070,21 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6083,21 +6092,21 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
@@ -6105,23 +6114,23 @@
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="24" customHeight="1">
@@ -6129,32 +6138,32 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
@@ -6162,10 +6171,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="24" customHeight="1">
@@ -6176,27 +6185,27 @@
     <row r="79" spans="1:31" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -6204,10 +6213,10 @@
         <v>46</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -6215,23 +6224,23 @@
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -6239,10 +6248,10 @@
         <v>46</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -6255,10 +6264,10 @@
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -6266,10 +6275,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -6282,10 +6291,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -6293,10 +6302,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -6309,10 +6318,10 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -6320,10 +6329,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -6387,20 +6396,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6411,10 +6420,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6422,7 +6431,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6433,10 +6442,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6449,23 +6458,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -6473,32 +6482,32 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AB19" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="AC19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -6506,35 +6515,35 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="AC23" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
@@ -6542,33 +6551,33 @@
         <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
@@ -6576,35 +6585,35 @@
         <v>62</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -6612,49 +6621,49 @@
         <v>62</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -6662,10 +6671,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
@@ -6676,22 +6685,22 @@
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="11"/>
       <c r="AA44" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AE44" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF44" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6735,20 +6744,20 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6759,10 +6768,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
@@ -6770,7 +6779,7 @@
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6781,10 +6790,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
@@ -6797,10 +6806,10 @@
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
@@ -6808,53 +6817,53 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF15" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AB15" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="AG15" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI15" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
@@ -6862,10 +6871,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
@@ -6875,331 +6884,331 @@
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA20" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK20" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB20" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL20" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD21" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AA21" s="6" t="s">
+      <c r="AE21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK21" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK21" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL21" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK22" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AA22" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK22" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL22" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH23" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AI23" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK23" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL23" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG24" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AA24" s="6" t="s">
+      <c r="AH24" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK24" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL24" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF25" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK25" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB25" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL25" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA26" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AA26" s="6" t="s">
+      <c r="AB26" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK26" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB26" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL26" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -7207,32 +7216,32 @@
         <v>62</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
@@ -7240,23 +7249,23 @@
         <v>46</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -7264,36 +7273,36 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="B42" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7301,43 +7310,43 @@
         <v>62</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -7345,23 +7354,23 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7369,43 +7378,43 @@
         <v>62</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="B62" s="11"/>
       <c r="AA62" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:39" ht="24" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:39" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:39" ht="24" customHeight="1">
@@ -7413,39 +7422,39 @@
         <v>62</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:39" ht="24" customHeight="1">
       <c r="B70" s="11"/>
       <c r="AA70" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AE70" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF70" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:39" ht="24" customHeight="1">
@@ -7453,10 +7462,10 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:39" ht="24" customHeight="1">
@@ -7466,54 +7475,54 @@
     </row>
     <row r="75" spans="1:39" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA75" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD75" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE75" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF75" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG75" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH75" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AB75" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC75" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD75" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE75" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF75" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG75" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH75" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="AI75" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AJ75" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK75" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL75" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM75" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:39" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:39" ht="24" customHeight="1">
@@ -7521,10 +7530,10 @@
         <v>62</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:39" ht="24" customHeight="1">
@@ -7534,24 +7543,24 @@
     </row>
     <row r="80" spans="1:39" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC80" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
@@ -7559,43 +7568,43 @@
         <v>62</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="B88" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
@@ -7603,33 +7612,33 @@
         <v>62</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="B92" s="11"/>
       <c r="AA92" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AD92" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7637,10 +7646,10 @@
         <v>62</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
@@ -7650,33 +7659,33 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA97" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB97" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AB97" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="AC97" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF97" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
@@ -7684,36 +7693,36 @@
         <v>62</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="11"/>
       <c r="AA101" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB101" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC101" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AE101" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
@@ -7721,10 +7730,10 @@
         <v>62</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
@@ -7734,36 +7743,36 @@
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="B106" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA106" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AB106" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AC106" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AD106" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE106" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF106" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG106" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
@@ -7771,19 +7780,19 @@
         <v>62</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7869,20 +7878,20 @@
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7893,10 +7902,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
@@ -7904,7 +7913,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7915,10 +7924,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
@@ -7931,10 +7940,10 @@
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
@@ -7942,10 +7951,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="24" customHeight="1">
@@ -7955,255 +7964,255 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC17" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AA17" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="AD17" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE18" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AA18" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="AF18" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN18" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="AC19" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>45</v>
@@ -8214,10 +8223,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="24" customHeight="1">
@@ -8225,10 +8234,10 @@
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
@@ -8236,35 +8245,35 @@
         <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -8272,10 +8281,10 @@
         <v>62</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -8286,41 +8295,41 @@
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -8330,10 +8339,10 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
@@ -8341,10 +8350,10 @@
         <v>62</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
@@ -8355,34 +8364,34 @@
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11"/>
       <c r="AA46" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:44" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:44" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:44" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:44" ht="24" customHeight="1">
@@ -8390,10 +8399,10 @@
         <v>62</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:44" ht="24" customHeight="1">
@@ -8404,45 +8413,45 @@
     <row r="55" spans="1:44" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ55" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AK55" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:44" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:44" ht="24" customHeight="1">
@@ -8450,10 +8459,10 @@
         <v>62</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="24" customHeight="1">
@@ -8464,66 +8473,66 @@
     <row r="60" spans="1:44" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF60" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ60" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK60" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL60" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM60" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN60" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO60" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AP60" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AQ60" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AR60" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:44" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="24" customHeight="1">
@@ -8531,10 +8540,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:44" ht="24" customHeight="1">
@@ -8545,97 +8554,97 @@
     <row r="65" spans="1:50" ht="24" customHeight="1">
       <c r="B65" s="11"/>
       <c r="AA65" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AE65" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF65" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG65" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AH65" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AI65" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AJ65" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK65" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL65" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM65" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN65" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO65" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AP65" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AQ65" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AR65" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AS65" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AT65" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AU65" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AV65" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AW65" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AX65" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:50" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:50" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:50" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:50" ht="24" customHeight="1">
@@ -8643,10 +8652,10 @@
         <v>62</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:50" ht="24" customHeight="1">
@@ -8657,36 +8666,36 @@
     <row r="74" spans="1:50" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AE74" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF74" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG74" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:50" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:50" ht="24" customHeight="1">
@@ -8694,10 +8703,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:50" ht="24" customHeight="1">
@@ -8708,43 +8717,43 @@
     <row r="79" spans="1:50" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AE79" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
@@ -8752,10 +8761,10 @@
         <v>62</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8766,27 +8775,27 @@
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
@@ -8794,10 +8803,10 @@
         <v>62</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
@@ -8808,34 +8817,34 @@
     <row r="93" spans="1:31" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="B97" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
@@ -8843,46 +8852,46 @@
         <v>62</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="11"/>
       <c r="AA101" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AB101" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AC101" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="B105" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
@@ -8890,10 +8899,10 @@
         <v>62</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
@@ -8904,33 +8913,33 @@
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AE110" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF110" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG110" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:32" ht="24" customHeight="1">
@@ -8938,10 +8947,10 @@
         <v>62</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="114" spans="1:32" ht="24" customHeight="1">
@@ -8952,40 +8961,40 @@
     <row r="115" spans="1:32" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AC115" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AD115" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AE115" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF115" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:32" ht="24" customHeight="1">
       <c r="A118" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="24" customHeight="1">
       <c r="B119" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:32" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>45</v>
@@ -8996,10 +9005,10 @@
         <v>46</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:32" ht="24" customHeight="1">
@@ -9007,10 +9016,10 @@
     </row>
     <row r="125" spans="1:32" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="24" customHeight="1">
@@ -9018,35 +9027,35 @@
         <v>62</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:32" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA127" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AD127" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:32" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="1:32" ht="24" customHeight="1">
@@ -9054,10 +9063,10 @@
         <v>62</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131" spans="1:32" ht="24" customHeight="1">
@@ -9068,41 +9077,41 @@
     <row r="132" spans="1:32" ht="24" customHeight="1">
       <c r="B132" s="11"/>
       <c r="AA132" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AB132" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AC132" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD132" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE132" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF132" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:32" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:32" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:32" ht="24" customHeight="1">
@@ -9112,10 +9121,10 @@
     </row>
     <row r="138" spans="1:32" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:32" ht="24" customHeight="1">
@@ -9123,10 +9132,10 @@
         <v>62</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" spans="1:32" ht="24" customHeight="1">
@@ -9137,34 +9146,34 @@
     <row r="141" spans="1:32" ht="24" customHeight="1">
       <c r="B141" s="11"/>
       <c r="AA141" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AB141" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AC141" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:32" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="145" spans="1:50" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="1:50" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="1:50" ht="24" customHeight="1">
@@ -9172,10 +9181,10 @@
         <v>62</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:50" ht="24" customHeight="1">
@@ -9186,45 +9195,45 @@
     <row r="150" spans="1:50" ht="24" customHeight="1">
       <c r="B150" s="11"/>
       <c r="AA150" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AB150" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AC150" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD150" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AE150" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF150" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG150" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH150" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI150" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ150" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AK150" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:50" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:50" ht="24" customHeight="1">
@@ -9232,10 +9241,10 @@
         <v>62</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="154" spans="1:50" ht="24" customHeight="1">
@@ -9246,66 +9255,66 @@
     <row r="155" spans="1:50" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AB155" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AC155" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AD155" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE155" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF155" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG155" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AI155" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ155" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK155" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL155" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN155" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO155" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AP155" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AQ155" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AR155" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:50" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:50" ht="24" customHeight="1">
@@ -9313,10 +9322,10 @@
         <v>62</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="159" spans="1:50" ht="24" customHeight="1">
@@ -9327,97 +9336,97 @@
     <row r="160" spans="1:50" ht="24" customHeight="1">
       <c r="B160" s="11"/>
       <c r="AA160" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AB160" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AC160" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AD160" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AE160" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF160" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG160" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AH160" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AI160" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AJ160" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK160" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL160" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN160" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO160" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AP160" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AQ160" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AR160" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AS160" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AT160" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AU160" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AV160" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AW160" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AX160" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:34" ht="24" customHeight="1">
       <c r="A163" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="164" spans="1:34" ht="24" customHeight="1">
       <c r="B164" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="166" spans="1:34" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="1:34" ht="24" customHeight="1">
@@ -9425,10 +9434,10 @@
         <v>62</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="168" spans="1:34" ht="24" customHeight="1">
@@ -9439,36 +9448,36 @@
     <row r="169" spans="1:34" ht="24" customHeight="1">
       <c r="B169" s="11"/>
       <c r="AA169" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AB169" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AC169" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AD169" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AE169" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF169" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG169" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH169" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:34" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="172" spans="1:34" ht="24" customHeight="1">
@@ -9476,10 +9485,10 @@
         <v>62</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" spans="1:34" ht="24" customHeight="1">
@@ -9490,43 +9499,43 @@
     <row r="174" spans="1:34" ht="24" customHeight="1">
       <c r="B174" s="11"/>
       <c r="AA174" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB174" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AC174" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AD174" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AE174" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF174" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:31" ht="24" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="1:31" ht="24" customHeight="1">
       <c r="B178" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="1:31" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:31" ht="24" customHeight="1">
@@ -9534,10 +9543,10 @@
         <v>62</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="182" spans="1:31" ht="24" customHeight="1">
@@ -9548,27 +9557,27 @@
     <row r="183" spans="1:31" ht="24" customHeight="1">
       <c r="B183" s="11"/>
       <c r="AA183" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AD183" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE183" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:31" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:31" ht="24" customHeight="1">
@@ -9576,10 +9585,10 @@
         <v>62</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="187" spans="1:31" ht="24" customHeight="1">
@@ -9590,34 +9599,34 @@
     <row r="188" spans="1:31" ht="24" customHeight="1">
       <c r="B188" s="11"/>
       <c r="AA188" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AB188" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AC188" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:31" ht="24" customHeight="1">
       <c r="A191" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="192" spans="1:31" ht="24" customHeight="1">
       <c r="B192" s="13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
       <c r="A194" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
@@ -9625,46 +9634,46 @@
         <v>62</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="196" spans="1:33" ht="24" customHeight="1">
       <c r="B196" s="11"/>
       <c r="AA196" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AB196" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AC196" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AD196" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
       <c r="B200" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -9672,10 +9681,10 @@
         <v>62</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -9686,33 +9695,33 @@
     <row r="205" spans="1:33" ht="24" customHeight="1">
       <c r="B205" s="11"/>
       <c r="AA205" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB205" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AD205" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF205" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG205" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -9720,10 +9729,10 @@
         <v>62</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="209" spans="2:32" ht="24" customHeight="1">
@@ -9734,22 +9743,22 @@
     <row r="210" spans="2:32" ht="24" customHeight="1">
       <c r="B210" s="11"/>
       <c r="AA210" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB210" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AC210" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AD210" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AE210" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF210" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9874,20 +9883,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -9898,10 +9907,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -9909,7 +9918,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -9920,10 +9929,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -9936,23 +9945,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="24" customHeight="1">
@@ -9960,33 +9969,33 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="24" customHeight="1">
@@ -9994,10 +10003,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="24" customHeight="1">
@@ -10007,59 +10016,59 @@
     </row>
     <row r="24" spans="1:37" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AA24" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="AD24" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>641</v>
-      </c>
       <c r="AE24" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="24" customHeight="1">
@@ -10067,21 +10076,21 @@
     </row>
     <row r="30" spans="1:37" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="24" customHeight="1">
@@ -10091,23 +10100,23 @@
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
@@ -10115,23 +10124,23 @@
         <v>46</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -10139,10 +10148,10 @@
         <v>62</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="24" customHeight="1">
@@ -10152,27 +10161,27 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
@@ -10180,10 +10189,10 @@
         <v>62</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="24" customHeight="1">
@@ -10194,30 +10203,30 @@
     <row r="50" spans="1:36" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>419</v>
+        <v>677</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AF50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="24" customHeight="1">
@@ -10225,10 +10234,10 @@
         <v>62</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="24" customHeight="1">
@@ -10238,115 +10247,115 @@
     </row>
     <row r="55" spans="1:36" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AJ55" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:36" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA56" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="AA56" s="6" t="s">
-        <v>684</v>
-      </c>
       <c r="AB56" s="6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AE56" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AF56" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AI56" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AJ56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:36" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA57" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB57" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="AA57" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="AB57" s="6" t="s">
-        <v>683</v>
-      </c>
       <c r="AC57" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AE57" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AF57" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AI57" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AJ57" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:36" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:36" ht="24" customHeight="1">
@@ -10354,10 +10363,10 @@
         <v>62</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="61" spans="1:36" ht="24" customHeight="1">
@@ -10368,37 +10377,37 @@
     <row r="62" spans="1:36" ht="24" customHeight="1">
       <c r="B62" s="11"/>
       <c r="AA62" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -10406,10 +10415,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -10417,10 +10426,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -10428,10 +10437,10 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -10442,21 +10451,21 @@
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -10464,35 +10473,35 @@
         <v>62</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -10500,10 +10509,10 @@
         <v>62</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -10514,30 +10523,30 @@
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AE84" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AF84" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -10545,10 +10554,10 @@
         <v>62</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -10559,16 +10568,16 @@
     <row r="89" spans="1:32" ht="24" customHeight="1">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AC89" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -10636,20 +10645,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -10660,10 +10669,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -10671,7 +10680,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -10682,10 +10691,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -10698,23 +10707,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
@@ -10722,23 +10731,23 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -10746,10 +10755,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -10759,63 +10768,63 @@
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -10823,23 +10832,23 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
@@ -10847,10 +10856,10 @@
         <v>62</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
@@ -10860,98 +10869,98 @@
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AB38" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="AC38" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AC38" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="AD38" s="6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AB39" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="AC39" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AC39" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="AD39" s="6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB40" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="AA40" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB40" s="6" t="s">
+      <c r="AC40" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AC40" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="AD40" s="6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -10992,20 +11001,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -11016,10 +11025,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -11027,7 +11036,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -11038,10 +11047,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -11054,10 +11063,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -11065,10 +11074,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -11079,21 +11088,21 @@
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
@@ -11101,23 +11110,23 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -11125,10 +11134,10 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -11138,27 +11147,27 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
@@ -11166,10 +11175,10 @@
         <v>62</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -11180,36 +11189,36 @@
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>526</v>
+        <v>793</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -11217,10 +11226,10 @@
         <v>62</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -11231,43 +11240,43 @@
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -11275,36 +11284,36 @@
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="B43" s="11"/>
       <c r="AA43" s="6" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AE43" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
@@ -11312,10 +11321,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -11323,23 +11332,23 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
@@ -11347,29 +11356,29 @@
         <v>62</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
@@ -11377,34 +11386,34 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
@@ -11412,10 +11421,10 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
@@ -11423,10 +11432,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
@@ -11436,51 +11445,51 @@
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
       <c r="B69" s="11" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
       <c r="B73" s="13" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -11488,27 +11497,27 @@
         <v>62</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -11516,10 +11525,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="24" customHeight="1">
@@ -11527,21 +11536,21 @@
     </row>
     <row r="83" spans="1:29" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="24" customHeight="1">
@@ -11549,10 +11558,10 @@
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
@@ -11560,10 +11569,10 @@
         <v>62</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="24" customHeight="1">
@@ -11574,13 +11583,13 @@
     <row r="90" spans="1:29" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
+++ b/cmip6/models/gfdl-esm2m/cmip6_noaa-gfdl_gfdl-esm2m_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1099">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -222,6 +222,9 @@
     <t>cmip6.atmos.key_properties.model_family</t>
   </si>
   <si>
+    <t>AGCM</t>
+  </si>
+  <si>
     <t>AGCM: Atmospheric General Circulation Model</t>
   </si>
   <si>
@@ -246,25 +249,19 @@
     <t>Hydrostatic</t>
   </si>
   <si>
-    <t>primitive equations</t>
-  </si>
-  <si>
-    <t>non-hydrostatic</t>
-  </si>
-  <si>
-    <t>anelastic</t>
+    <t>Primitive equations</t>
+  </si>
+  <si>
+    <t>Non-hydrostatic</t>
+  </si>
+  <si>
+    <t>Anelastic</t>
   </si>
   <si>
     <t>Boussinesq</t>
   </si>
   <si>
-    <t>hydrostatic</t>
-  </si>
-  <si>
-    <t>quasi-hydrostatic</t>
-  </si>
-  <si>
-    <t>Primitive equations</t>
+    <t>Quasi-hydrostatic</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -411,10 +408,10 @@
     <t>Other: present day</t>
   </si>
   <si>
-    <t>fixed: present day</t>
-  </si>
-  <si>
-    <t>fixed: modified: provide details of modification below</t>
+    <t>Fixed: present day</t>
+  </si>
+  <si>
+    <t>Fixed: modified: provide details of modification below</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.2 </t>
@@ -429,16 +426,16 @@
     <t>cmip6.atmos.key_properties.orography.modified</t>
   </si>
   <si>
-    <t>related to ice sheets</t>
-  </si>
-  <si>
-    <t>related to tectonics</t>
-  </si>
-  <si>
-    <t>modified mean</t>
-  </si>
-  <si>
-    <t>modified variance if taken into account in model (cf gravity waves)</t>
+    <t>Related to ice sheets</t>
+  </si>
+  <si>
+    <t>Related to tectonics</t>
+  </si>
+  <si>
+    <t>Modified mean</t>
+  </si>
+  <si>
+    <t>Modified variance if taken into account in model (cf gravity waves)</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.3 </t>
@@ -561,10 +558,7 @@
     <t>Fixed grid</t>
   </si>
   <si>
-    <t>spectral</t>
-  </si>
-  <si>
-    <t>fixed grid</t>
+    <t>Spectral</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -582,16 +576,13 @@
     <t>Finite volumes</t>
   </si>
   <si>
-    <t>finite elements</t>
-  </si>
-  <si>
-    <t>finite volumes</t>
-  </si>
-  <si>
-    <t>finite difference</t>
-  </si>
-  <si>
-    <t>centered finite difference</t>
+    <t>Finite elements</t>
+  </si>
+  <si>
+    <t>Finite difference</t>
+  </si>
+  <si>
+    <t>Centered finite difference</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -606,13 +597,13 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.scheme_order</t>
   </si>
   <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>third</t>
-  </si>
-  <si>
-    <t>fourth</t>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>Fourth</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.4 </t>
@@ -630,13 +621,10 @@
     <t>Filter</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>pole rotation</t>
-  </si>
-  <si>
-    <t>artificial island</t>
+    <t>Pole rotation</t>
+  </si>
+  <si>
+    <t>Artificial island</t>
   </si>
   <si>
     <t>2.1.2.5 *</t>
@@ -684,19 +672,19 @@
     <t>cmip6.atmos.grid.discretisation.vertical.coordinate_type</t>
   </si>
   <si>
-    <t>isobaric: vertical coordinate on pressure levels</t>
-  </si>
-  <si>
-    <t>sigma: allows vertical coordinate to follow model terrain</t>
-  </si>
-  <si>
-    <t>hybrid sigma-pressure: sigma system near terrain and isobaric above</t>
-  </si>
-  <si>
-    <t>hybrid pressure</t>
-  </si>
-  <si>
-    <t>vertically lagrangian</t>
+    <t>Isobaric: vertical coordinate on pressure levels</t>
+  </si>
+  <si>
+    <t>Sigma: allows vertical coordinate to follow model terrain</t>
+  </si>
+  <si>
+    <t>Hybrid sigma-pressure: sigma system near terrain and isobaric above</t>
+  </si>
+  <si>
+    <t>Hybrid pressure</t>
+  </si>
+  <si>
+    <t>Vertically lagrangian</t>
   </si>
   <si>
     <t>3.1.1</t>
@@ -744,19 +732,16 @@
     <t>Adams-Bashforth</t>
   </si>
   <si>
-    <t>explicit</t>
-  </si>
-  <si>
-    <t>implicit</t>
-  </si>
-  <si>
-    <t>semi-implicit</t>
-  </si>
-  <si>
-    <t>leap frog</t>
-  </si>
-  <si>
-    <t>multi-step</t>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>Semi-implicit</t>
+  </si>
+  <si>
+    <t>Leap frog</t>
   </si>
   <si>
     <t>Runge Kutta fifth order</t>
@@ -783,58 +768,37 @@
     <t>Clouds</t>
   </si>
   <si>
-    <t>surface pressure</t>
-  </si>
-  <si>
-    <t>wind components</t>
-  </si>
-  <si>
-    <t>divergence/curl</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>potential temperature</t>
-  </si>
-  <si>
-    <t>total water</t>
-  </si>
-  <si>
-    <t>water vapour</t>
-  </si>
-  <si>
-    <t>water liquid</t>
-  </si>
-  <si>
-    <t>water ice</t>
-  </si>
-  <si>
-    <t>total water moments</t>
-  </si>
-  <si>
-    <t>clouds</t>
-  </si>
-  <si>
-    <t>radiation</t>
+    <t>Surface pressure</t>
+  </si>
+  <si>
+    <t>Wind components</t>
+  </si>
+  <si>
+    <t>Divergence/curl</t>
+  </si>
+  <si>
+    <t>Temperature</t>
   </si>
   <si>
     <t>Potential temperature</t>
   </si>
   <si>
-    <t>Surface pressure</t>
+    <t>Total water</t>
+  </si>
+  <si>
+    <t>Water vapour</t>
+  </si>
+  <si>
+    <t>Water liquid</t>
   </si>
   <si>
     <t>Water ice</t>
   </si>
   <si>
-    <t>Water liquid</t>
-  </si>
-  <si>
-    <t>Water vapour</t>
-  </si>
-  <si>
-    <t>Wind components</t>
+    <t>Total water moments</t>
+  </si>
+  <si>
+    <t>Radiation</t>
   </si>
   <si>
     <t>3.2.1</t>
@@ -861,10 +825,7 @@
     <t>Sponge layer</t>
   </si>
   <si>
-    <t>sponge layer</t>
-  </si>
-  <si>
-    <t>radiation boundary condition</t>
+    <t>Radiation boundary condition</t>
   </si>
   <si>
     <t>3.2.1.2 *</t>
@@ -951,10 +912,10 @@
     <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_method</t>
   </si>
   <si>
-    <t>iterated Laplacian</t>
-  </si>
-  <si>
-    <t>bi-harmonic</t>
+    <t>Iterated Laplacian</t>
+  </si>
+  <si>
+    <t>Bi-harmonic</t>
   </si>
   <si>
     <t>3.4.2</t>
@@ -1008,37 +969,34 @@
     <t>Eulerian</t>
   </si>
   <si>
-    <t>modified Euler</t>
+    <t>Modified Euler</t>
   </si>
   <si>
     <t>Lagrangian</t>
   </si>
   <si>
-    <t>semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>cubic semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>quintic semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>mass-conserving</t>
-  </si>
-  <si>
-    <t>finite volume</t>
-  </si>
-  <si>
-    <t>flux-corrected</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>quadratic</t>
-  </si>
-  <si>
-    <t>quartic</t>
+    <t>Semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>Cubic semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>Quintic semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>Mass-conserving</t>
+  </si>
+  <si>
+    <t>Flux-corrected</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Quadratic</t>
+  </si>
+  <si>
+    <t>Quartic</t>
   </si>
   <si>
     <t>3.4.2.3 *</t>
@@ -1056,10 +1014,10 @@
     <t>Other: mass</t>
   </si>
   <si>
-    <t>dry mass</t>
-  </si>
-  <si>
-    <t>tracer mass</t>
+    <t>Dry mass</t>
+  </si>
+  <si>
+    <t>Tracer mass</t>
   </si>
   <si>
     <t>3.4.2.4 *</t>
@@ -1074,7 +1032,7 @@
     <t>cmip6.atmos.dynamical_core.advection.tracers.conservation_method</t>
   </si>
   <si>
-    <t>conservation fixer</t>
+    <t>Conservation fixer</t>
   </si>
   <si>
     <t>Priestley algorithm</t>
@@ -1122,13 +1080,13 @@
     <t>2nd order</t>
   </si>
   <si>
-    <t>cell-centred</t>
-  </si>
-  <si>
-    <t>staggered grid</t>
-  </si>
-  <si>
-    <t>semi-staggered grid</t>
+    <t>Cell-centred</t>
+  </si>
+  <si>
+    <t>Staggered grid</t>
+  </si>
+  <si>
+    <t>Semi-staggered grid</t>
   </si>
   <si>
     <t>3.4.3.3 *</t>
@@ -1197,9 +1155,6 @@
     <t>4.1.1</t>
   </si>
   <si>
-    <t>Radiation</t>
-  </si>
-  <si>
     <t>Characteristics of the atmosphere radiation process</t>
   </si>
   <si>
@@ -1236,22 +1191,22 @@
     <t>Other: black carbon / soot</t>
   </si>
   <si>
-    <t>sulphate</t>
-  </si>
-  <si>
-    <t>nitrate</t>
-  </si>
-  <si>
-    <t>sea salt</t>
-  </si>
-  <si>
-    <t>dust</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>organic</t>
+    <t>Sulphate</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Sea salt</t>
+  </si>
+  <si>
+    <t>Dust</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Organic</t>
   </si>
   <si>
     <t>BC: black carbon / soot</t>
@@ -1263,7 +1218,7 @@
     <t>POM: particulate organic matter</t>
   </si>
   <si>
-    <t>polar stratospheric ice</t>
+    <t>Polar stratospheric ice</t>
   </si>
   <si>
     <t>NAT: nitric acid trihydrate</t>
@@ -1275,18 +1230,6 @@
     <t>STS: supercooled ternary solution aerosol particle</t>
   </si>
   <si>
-    <t>Dust</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
-    <t>Sea salt</t>
-  </si>
-  <si>
-    <t>Sulphate</t>
-  </si>
-  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1320,13 +1263,10 @@
     <t>Wide-band model</t>
   </si>
   <si>
-    <t>wide-band model</t>
-  </si>
-  <si>
-    <t>correlated-k</t>
-  </si>
-  <si>
-    <t>exponential sum fitting</t>
+    <t>Correlated-k</t>
+  </si>
+  <si>
+    <t>Exponential sum fitting</t>
   </si>
   <si>
     <t>4.2.1.3 *</t>
@@ -1341,19 +1281,19 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.transport_calculation</t>
   </si>
   <si>
-    <t>two-stream</t>
-  </si>
-  <si>
-    <t>layer interaction</t>
-  </si>
-  <si>
-    <t>bulk: highly parameterised methods that use bulk expressions</t>
-  </si>
-  <si>
-    <t>adaptive: exploits spatial and temporal correlations in optical characteristics</t>
-  </si>
-  <si>
-    <t>multi-stream</t>
+    <t>Two-stream</t>
+  </si>
+  <si>
+    <t>Layer interaction</t>
+  </si>
+  <si>
+    <t>Bulk: highly parameterised methods that use bulk expressions</t>
+  </si>
+  <si>
+    <t>Adaptive: exploits spatial and temporal correlations in optical characteristics</t>
+  </si>
+  <si>
+    <t>Multi-stream</t>
   </si>
   <si>
     <t>4.2.1.4 *</t>
@@ -1380,10 +1320,10 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.general_interactions</t>
   </si>
   <si>
-    <t>emission/absorption,</t>
-  </si>
-  <si>
-    <t>scattering</t>
+    <t>Emission/absorption,</t>
+  </si>
+  <si>
+    <t>Scattering</t>
   </si>
   <si>
     <t>4.3.1</t>
@@ -1482,22 +1422,22 @@
     <t>Halon-2402: halon</t>
   </si>
   <si>
-    <t>methyl chloroform: CH3CCl3</t>
-  </si>
-  <si>
-    <t>carbon tetrachloride: CCl4</t>
-  </si>
-  <si>
-    <t>methyl chloride: CH3Cl</t>
-  </si>
-  <si>
-    <t>methylene chloride: CH2Cl2</t>
-  </si>
-  <si>
-    <t>chloroform: CHCl3</t>
-  </si>
-  <si>
-    <t>methyl bromide: Ch3Br</t>
+    <t>Methyl chloroform: CH3CCl3</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride: CCl4</t>
+  </si>
+  <si>
+    <t>Methyl chloride: CH3Cl</t>
+  </si>
+  <si>
+    <t>Methylene chloride: CH2Cl2</t>
+  </si>
+  <si>
+    <t>Chloroform: CHCl3</t>
+  </si>
+  <si>
+    <t>Methyl bromide: Ch3Br</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.1.3 </t>
@@ -1569,7 +1509,7 @@
     <t>C8F18: PFC</t>
   </si>
   <si>
-    <t>c-C4F8: PFC</t>
+    <t>C-C4F8: PFC</t>
   </si>
   <si>
     <t>NF3</t>
@@ -1602,25 +1542,25 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.physical_representation</t>
   </si>
   <si>
-    <t>bi-modal size distribution: small mode diameters: a few tens of microns, large mode diameters: typically hundreds of microns</t>
-  </si>
-  <si>
-    <t>ensemble of ice crystals: complex shapes represented with an ensemble of symmetric shapes</t>
-  </si>
-  <si>
-    <t>mean projected area: randomly oriented irregular ice crystals present a greater mean projected area than spheres</t>
-  </si>
-  <si>
-    <t>ice water path: Integrated ice water path through the cloud kg m-2</t>
-  </si>
-  <si>
-    <t>crystal asymmetry</t>
-  </si>
-  <si>
-    <t>crystal aspect ratio</t>
-  </si>
-  <si>
-    <t>effective crystal radius</t>
+    <t>Bi-modal size distribution: small mode diameters: a few tens of microns, large mode diameters: typically hundreds of microns</t>
+  </si>
+  <si>
+    <t>Ensemble of ice crystals: complex shapes represented with an ensemble of symmetric shapes</t>
+  </si>
+  <si>
+    <t>Mean projected area: randomly oriented irregular ice crystals present a greater mean projected area than spheres</t>
+  </si>
+  <si>
+    <t>Ice water path: Integrated ice water path through the cloud kg m-2</t>
+  </si>
+  <si>
+    <t>Crystal asymmetry</t>
+  </si>
+  <si>
+    <t>Crystal aspect ratio</t>
+  </si>
+  <si>
+    <t>Effective crystal radius</t>
   </si>
   <si>
     <t>4.4.1.2 *</t>
@@ -1638,16 +1578,16 @@
     <t>T-matrix: For non-spherical particles</t>
   </si>
   <si>
-    <t>geometric optics: For non-spherical particles</t>
-  </si>
-  <si>
-    <t>finite difference time domain (FDTD): For non-spherical particles</t>
+    <t>Geometric optics: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Finite difference time domain (FDTD): For non-spherical particles</t>
   </si>
   <si>
     <t>Mie theory: For spherical particles</t>
   </si>
   <si>
-    <t>anomalous diffraction approximation</t>
+    <t>Anomalous diffraction approximation</t>
   </si>
   <si>
     <t>4.5.1</t>
@@ -1668,16 +1608,16 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_liquid.physical_representation</t>
   </si>
   <si>
-    <t>cloud droplet number concentration: CDNC</t>
-  </si>
-  <si>
-    <t>effective cloud droplet radii</t>
-  </si>
-  <si>
-    <t>droplet size distribution</t>
-  </si>
-  <si>
-    <t>liquid water path: Integrated liquid water path through the cloud kg m-2</t>
+    <t>Cloud droplet number concentration: CDNC</t>
+  </si>
+  <si>
+    <t>Effective cloud droplet radii</t>
+  </si>
+  <si>
+    <t>Droplet size distribution</t>
+  </si>
+  <si>
+    <t>Liquid water path: Integrated liquid water path through the cloud kg m-2</t>
   </si>
   <si>
     <t>4.5.1.2 *</t>
@@ -1716,7 +1656,7 @@
     <t>Triplecloud: Regions of clear sky, optically thin cloud and optically thick cloud, Shonk et al 2010</t>
   </si>
   <si>
-    <t>analytic</t>
+    <t>Analytic</t>
   </si>
   <si>
     <t>4.7.1</t>
@@ -1737,22 +1677,22 @@
     <t>cmip6.atmos.radiation.shortwave_aerosols.physical_representation</t>
   </si>
   <si>
-    <t>number concentration</t>
-  </si>
-  <si>
-    <t>effective radii</t>
-  </si>
-  <si>
-    <t>size distribution</t>
-  </si>
-  <si>
-    <t>asymmetry</t>
-  </si>
-  <si>
-    <t>aspect ratio</t>
-  </si>
-  <si>
-    <t>mixing state: For shortwave radiative interaction</t>
+    <t>Number concentration</t>
+  </si>
+  <si>
+    <t>Effective radii</t>
+  </si>
+  <si>
+    <t>Size distribution</t>
+  </si>
+  <si>
+    <t>Asymmetry</t>
+  </si>
+  <si>
+    <t>Aspect ratio</t>
+  </si>
+  <si>
+    <t>Mixing state: For shortwave radiative interaction</t>
   </si>
   <si>
     <t>4.7.1.2 *</t>
@@ -2025,10 +1965,7 @@
     <t>TKE coupled with water</t>
   </si>
   <si>
-    <t>vertical profile of Kz</t>
-  </si>
-  <si>
-    <t>non-local diffusion</t>
+    <t>Non-local diffusion</t>
   </si>
   <si>
     <t>Monin-Obukhov similarity</t>
@@ -2103,13 +2040,10 @@
     <t>Mass-flux</t>
   </si>
   <si>
-    <t>mass-flux</t>
-  </si>
-  <si>
-    <t>adjustment</t>
-  </si>
-  <si>
-    <t>plume ensemble: Zhang-McFarlane</t>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Plume ensemble: Zhang-McFarlane</t>
   </si>
   <si>
     <t>5.3.1.3 *</t>
@@ -2124,10 +2058,10 @@
     <t>CAPE: Mass flux determined by CAPE, convectively available potential energy.</t>
   </si>
   <si>
-    <t>bulk: A bulk mass flux scheme is used</t>
-  </si>
-  <si>
-    <t>ensemble: Summation over an ensemble of convective clouds with differing characteristics</t>
+    <t>Bulk: A bulk mass flux scheme is used</t>
+  </si>
+  <si>
+    <t>Ensemble: Summation over an ensemble of convective clouds with differing characteristics</t>
   </si>
   <si>
     <t>CAPE/WFN based: CAPE-Cloud Work Function: Based on the quasi-equilibrium of the free troposphere</t>
@@ -2151,37 +2085,28 @@
     <t>Convective momentum transport</t>
   </si>
   <si>
-    <t>vertical momentum transport</t>
-  </si>
-  <si>
-    <t>convective momentum transport</t>
-  </si>
-  <si>
-    <t>entrainment</t>
-  </si>
-  <si>
-    <t>detrainment</t>
-  </si>
-  <si>
-    <t>penetrative convection</t>
-  </si>
-  <si>
-    <t>updrafts</t>
-  </si>
-  <si>
-    <t>downdrafts</t>
-  </si>
-  <si>
-    <t>radiative effect of anvils</t>
-  </si>
-  <si>
-    <t>re-evaporation of convective precipitation</t>
+    <t>Vertical momentum transport</t>
+  </si>
+  <si>
+    <t>Entrainment</t>
   </si>
   <si>
     <t>Detrainment</t>
   </si>
   <si>
-    <t>Entrainment</t>
+    <t>Penetrative convection</t>
+  </si>
+  <si>
+    <t>Updrafts</t>
+  </si>
+  <si>
+    <t>Downdrafts</t>
+  </si>
+  <si>
+    <t>Radiative effect of anvils</t>
+  </si>
+  <si>
+    <t>Re-evaporation of convective precipitation</t>
   </si>
   <si>
     <t xml:space="preserve">5.3.1.5 </t>
@@ -2196,13 +2121,13 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.microphysics</t>
   </si>
   <si>
-    <t>tuning parameter based</t>
-  </si>
-  <si>
-    <t>single moment</t>
-  </si>
-  <si>
-    <t>two moment</t>
+    <t>Tuning parameter based</t>
+  </si>
+  <si>
+    <t>Single moment</t>
+  </si>
+  <si>
+    <t>Two moment</t>
   </si>
   <si>
     <t>5.4.1</t>
@@ -2232,7 +2157,7 @@
     <t>cmip6.atmos.turbulence_convection.shallow_convection.scheme_type</t>
   </si>
   <si>
-    <t>cumulus-capped boundary layer</t>
+    <t>Cumulus-capped boundary layer</t>
   </si>
   <si>
     <t>5.4.1.3 *</t>
@@ -2247,13 +2172,10 @@
     <t>Same as deep (unified)</t>
   </si>
   <si>
-    <t>same as deep (unified)</t>
-  </si>
-  <si>
-    <t>included in boundary layer turbulence</t>
-  </si>
-  <si>
-    <t>separate diagnosis: Deep and Shallow convection schemes use different thermodynamic closure criteria</t>
+    <t>Included in boundary layer turbulence</t>
+  </si>
+  <si>
+    <t>Separate diagnosis: Deep and Shallow convection schemes use different thermodynamic closure criteria</t>
   </si>
   <si>
     <t>5.4.1.4 *</t>
@@ -2334,21 +2256,15 @@
     <t>Liquid rain</t>
   </si>
   <si>
-    <t>liquid rain</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>hail</t>
-  </si>
-  <si>
-    <t>graupel</t>
-  </si>
-  <si>
     <t>Snow</t>
   </si>
   <si>
+    <t>Hail</t>
+  </si>
+  <si>
+    <t>Graupel</t>
+  </si>
+  <si>
     <t>6.3.1</t>
   </si>
   <si>
@@ -2379,36 +2295,27 @@
     <t>Cloud ice</t>
   </si>
   <si>
-    <t>mixed phase</t>
-  </si>
-  <si>
-    <t>cloud droplets</t>
-  </si>
-  <si>
-    <t>cloud ice</t>
-  </si>
-  <si>
-    <t>ice nucleation</t>
-  </si>
-  <si>
-    <t>water vapour deposition</t>
-  </si>
-  <si>
-    <t>effect of raindrops</t>
-  </si>
-  <si>
-    <t>effect of snow</t>
-  </si>
-  <si>
-    <t>effect of graupel</t>
-  </si>
-  <si>
     <t>Mixed phase</t>
   </si>
   <si>
+    <t>Cloud droplets</t>
+  </si>
+  <si>
+    <t>Ice nucleation</t>
+  </si>
+  <si>
     <t>Water vapour deposition</t>
   </si>
   <si>
+    <t>Effect of raindrops</t>
+  </si>
+  <si>
+    <t>Effect of snow</t>
+  </si>
+  <si>
+    <t>Effect of graupel</t>
+  </si>
+  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -2445,10 +2352,10 @@
     <t>cmip6.atmos.cloud_scheme.scheme_type</t>
   </si>
   <si>
-    <t>prognostic</t>
-  </si>
-  <si>
-    <t>diagnostic</t>
+    <t>Prognostic</t>
+  </si>
+  <si>
+    <t>Diagnostic</t>
   </si>
   <si>
     <t>7.1.1.4 *</t>
@@ -2478,7 +2385,7 @@
     <t>Other: klein</t>
   </si>
   <si>
-    <t>bulk cloud</t>
+    <t>Bulk cloud</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.6 </t>
@@ -2490,19 +2397,19 @@
     <t>cmip6.atmos.cloud_scheme.prognostic_variables</t>
   </si>
   <si>
-    <t>cloud amount</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>cloud droplet number concentration: To document the use of two-moment cloud microphysics schemes</t>
-  </si>
-  <si>
-    <t>ice crystal number concentration: To document the use of two-moment cloud microphysics schemes</t>
+    <t>Cloud amount</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Cloud droplet number concentration: To document the use of two-moment cloud microphysics schemes</t>
+  </si>
+  <si>
+    <t>Ice crystal number concentration: To document the use of two-moment cloud microphysics schemes</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.7 </t>
@@ -2517,22 +2424,22 @@
     <t>cmip6.atmos.cloud_scheme.atmos_coupling</t>
   </si>
   <si>
-    <t>atmosphere_radiation</t>
-  </si>
-  <si>
-    <t>atmosphere_microphysics_precipitation</t>
-  </si>
-  <si>
-    <t>atmosphere_turbulence_convection</t>
-  </si>
-  <si>
-    <t>atmosphere_gravity_waves</t>
-  </si>
-  <si>
-    <t>atmosphere_natural_forcing</t>
-  </si>
-  <si>
-    <t>atmosphere_observation_simulation</t>
+    <t>Atmosphere_radiation</t>
+  </si>
+  <si>
+    <t>Atmosphere_microphysics_precipitation</t>
+  </si>
+  <si>
+    <t>Atmosphere_turbulence_convection</t>
+  </si>
+  <si>
+    <t>Atmosphere_gravity_waves</t>
+  </si>
+  <si>
+    <t>Atmosphere_natural_forcing</t>
+  </si>
+  <si>
+    <t>Atmosphere_observation_simulation</t>
   </si>
   <si>
     <t>7.2.1</t>
@@ -2556,16 +2463,16 @@
     <t>cmip6.atmos.cloud_scheme.optical_cloud_properties.cloud_overlap_method</t>
   </si>
   <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>maximum-random: combination of maximum and random overlap between clouds</t>
-  </si>
-  <si>
-    <t>exponential</t>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Maximum-random: combination of maximum and random overlap between clouds</t>
+  </si>
+  <si>
+    <t>Exponential</t>
   </si>
   <si>
     <t xml:space="preserve">7.2.1.2 </t>
@@ -2595,9 +2502,6 @@
     <t>cmip6.atmos.cloud_scheme.sub_grid_scale_water_distribution.type</t>
   </si>
   <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
     <t>7.3.1.2 *</t>
   </si>
   <si>
@@ -2640,18 +2544,12 @@
     <t>Coupled with deep</t>
   </si>
   <si>
-    <t>coupled with deep</t>
-  </si>
-  <si>
-    <t>coupled with shallow</t>
-  </si>
-  <si>
-    <t>not coupled with convection</t>
-  </si>
-  <si>
     <t>Coupled with shallow</t>
   </si>
   <si>
+    <t>Not coupled with convection</t>
+  </si>
+  <si>
     <t>7.4.1</t>
   </si>
   <si>
@@ -2745,13 +2643,13 @@
     <t>cmip6.atmos.observation_simulation.isscp_attributes.top_height_estimation_method</t>
   </si>
   <si>
-    <t>no adjustment</t>
+    <t>No adjustment</t>
   </si>
   <si>
     <t>IR brightness</t>
   </si>
   <si>
-    <t>visible optical depth</t>
+    <t>Visible optical depth</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.1.2 </t>
@@ -2766,10 +2664,10 @@
     <t>cmip6.atmos.observation_simulation.isscp_attributes.top_height_direction</t>
   </si>
   <si>
-    <t>lowest altitude level</t>
-  </si>
-  <si>
-    <t>highest altitude level</t>
+    <t>Lowest altitude level</t>
+  </si>
+  <si>
+    <t>Highest altitude level</t>
   </si>
   <si>
     <t>8.3.1</t>
@@ -2868,10 +2766,10 @@
     <t>cmip6.atmos.observation_simulation.radar_inputs.type</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>space borne</t>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Space borne</t>
   </si>
   <si>
     <t xml:space="preserve">8.4.1.3 </t>
@@ -2919,10 +2817,10 @@
     <t>cmip6.atmos.observation_simulation.lidar_inputs.ice_types</t>
   </si>
   <si>
-    <t>ice spheres</t>
-  </si>
-  <si>
-    <t>ice non-spherical</t>
+    <t>Ice spheres</t>
+  </si>
+  <si>
+    <t>Ice non-spherical</t>
   </si>
   <si>
     <t xml:space="preserve">8.5.1.2 </t>
@@ -2937,7 +2835,7 @@
     <t>cmip6.atmos.observation_simulation.lidar_inputs.overlap</t>
   </si>
   <si>
-    <t>max</t>
+    <t>Max</t>
   </si>
   <si>
     <t>9.1.1</t>
@@ -2997,10 +2895,10 @@
     <t>cmip6.atmos.gravity_waves.background</t>
   </si>
   <si>
-    <t>continuous spectrum</t>
-  </si>
-  <si>
-    <t>discrete spectrum</t>
+    <t>Continuous spectrum</t>
+  </si>
+  <si>
+    <t>Discrete spectrum</t>
   </si>
   <si>
     <t>9.1.1.5 *</t>
@@ -3018,13 +2916,10 @@
     <t>Effect on drag</t>
   </si>
   <si>
-    <t>effect on drag</t>
-  </si>
-  <si>
-    <t>effect on lifting</t>
-  </si>
-  <si>
-    <t>enhanced topography: To enhance the generation of long waves in the atmosphere</t>
+    <t>Effect on lifting</t>
+  </si>
+  <si>
+    <t>Enhanced topography: To enhance the generation of long waves in the atmosphere</t>
   </si>
   <si>
     <t>9.2.1</t>
@@ -3060,24 +2955,15 @@
     <t>Hydraulic jump</t>
   </si>
   <si>
-    <t>linear mountain waves</t>
-  </si>
-  <si>
-    <t>hydraulic jump</t>
-  </si>
-  <si>
-    <t>envelope orography</t>
-  </si>
-  <si>
-    <t>low level flow blocking</t>
-  </si>
-  <si>
-    <t>statistical sub-grid scale variance</t>
-  </si>
-  <si>
     <t>Linear mountain waves</t>
   </si>
   <si>
+    <t>Envelope orography</t>
+  </si>
+  <si>
+    <t>Low level flow blocking</t>
+  </si>
+  <si>
     <t>Statistical sub-grid scale variance</t>
   </si>
   <si>
@@ -3096,10 +2982,7 @@
     <t>Non-linear calculation</t>
   </si>
   <si>
-    <t>non-linear calculation</t>
-  </si>
-  <si>
-    <t>more than two cardinal directions</t>
+    <t>More than two cardinal directions</t>
   </si>
   <si>
     <t>9.2.1.4 *</t>
@@ -3117,13 +3000,10 @@
     <t>Linear theory</t>
   </si>
   <si>
-    <t>linear theory</t>
-  </si>
-  <si>
-    <t>non-linear theory</t>
-  </si>
-  <si>
-    <t>includes boundary layer ducting</t>
+    <t>Non-linear theory</t>
+  </si>
+  <si>
+    <t>Includes boundary layer ducting</t>
   </si>
   <si>
     <t>9.2.1.5 *</t>
@@ -3141,13 +3021,10 @@
     <t>Single wave</t>
   </si>
   <si>
-    <t>total wave</t>
-  </si>
-  <si>
-    <t>single wave</t>
-  </si>
-  <si>
-    <t>wave saturation vs Richardson number</t>
+    <t>Total wave</t>
+  </si>
+  <si>
+    <t>Wave saturation vs Richardson number</t>
   </si>
   <si>
     <t>9.3.1</t>
@@ -3177,13 +3054,13 @@
     <t>cmip6.atmos.gravity_waves.non_orographic_gravity_waves.source_mechanisms</t>
   </si>
   <si>
-    <t>convection</t>
-  </si>
-  <si>
-    <t>precipitation</t>
-  </si>
-  <si>
-    <t>background spectrum</t>
+    <t>Convection</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>Background spectrum</t>
   </si>
   <si>
     <t>9.3.1.3 *</t>
@@ -3195,10 +3072,10 @@
     <t>cmip6.atmos.gravity_waves.non_orographic_gravity_waves.calculation_method</t>
   </si>
   <si>
-    <t>spatially dependent</t>
-  </si>
-  <si>
-    <t>temporally dependent</t>
+    <t>Spatially dependent</t>
+  </si>
+  <si>
+    <t>Temporally dependent</t>
   </si>
   <si>
     <t>9.3.1.4 *</t>
@@ -3270,10 +3147,10 @@
     <t>SW radiation: Shortwave solar spectral irradiance.</t>
   </si>
   <si>
-    <t>precipitating energetic particles: Precipitating energetic particles from the sun (predominantly protons) and the magnetosphere (predominantly electrons) affect the ionization levels in the polar middle and upper atmosphere, leading to significant changes of the chemical composition</t>
-  </si>
-  <si>
-    <t>cosmic rays: Cosmic rays are the main source of ionization in the troposphere and lower stratosphere.</t>
+    <t>Precipitating energetic particles: Precipitating energetic particles from the sun (predominantly protons) and the magnetosphere (predominantly electrons) affect the ionization levels in the polar middle and upper atmosphere, leading to significant changes</t>
+  </si>
+  <si>
+    <t>Cosmic rays: Cosmic rays are the main source of ionization in the troposphere and lower stratosphere.</t>
   </si>
   <si>
     <t>10.3.1</t>
@@ -3297,10 +3174,7 @@
     <t>Transient</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>transient</t>
+    <t>Fixed</t>
   </si>
   <si>
     <t xml:space="preserve">10.3.1.2 </t>
@@ -3348,9 +3222,6 @@
     <t>cmip6.atmos.natural_forcing.orbital_parameters.type</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.4.1.2 </t>
   </si>
   <si>
@@ -3450,10 +3321,7 @@
     <t>Stratospheric aerosols optical thickness</t>
   </si>
   <si>
-    <t>high frequency solar constant anomaly</t>
-  </si>
-  <si>
-    <t>stratospheric aerosols optical thickness</t>
+    <t>High frequency solar constant anomaly</t>
   </si>
 </sst>
 </file>
@@ -4114,20 +3982,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>890</v>
+        <v>856</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>891</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>892</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>893</v>
+        <v>859</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4138,10 +4006,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>894</v>
+        <v>860</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>895</v>
+        <v>861</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4149,7 +4017,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>896</v>
+        <v>862</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4160,10 +4028,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>898</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4176,23 +4044,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>899</v>
+        <v>865</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>901</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>902</v>
+        <v>868</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4200,10 +4068,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>904</v>
+        <v>870</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>905</v>
+        <v>871</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4214,24 +4082,24 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>906</v>
+        <v>872</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>907</v>
+        <v>873</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>908</v>
+        <v>874</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>909</v>
+        <v>875</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>910</v>
+        <v>876</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4239,43 +4107,43 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>911</v>
+        <v>877</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>912</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>914</v>
+        <v>880</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>916</v>
+        <v>882</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>917</v>
+        <v>883</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>918</v>
+        <v>884</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>919</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4283,41 +4151,41 @@
         <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>920</v>
+        <v>886</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>921</v>
+        <v>887</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>922</v>
+        <v>888</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>923</v>
+        <v>889</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>924</v>
+        <v>890</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>925</v>
+        <v>891</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>926</v>
+        <v>892</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>927</v>
+        <v>893</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -4325,21 +4193,21 @@
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>928</v>
+        <v>894</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>929</v>
+        <v>895</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>931</v>
+        <v>897</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4347,21 +4215,21 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>932</v>
+        <v>898</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4369,34 +4237,34 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>938</v>
+        <v>904</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>940</v>
+        <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>942</v>
+        <v>908</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4404,10 +4272,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>944</v>
+        <v>910</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -4415,41 +4283,41 @@
         <v>62</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>952</v>
+        <v>918</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -4457,21 +4325,21 @@
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>953</v>
+        <v>919</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>954</v>
+        <v>920</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>955</v>
+        <v>921</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>956</v>
+        <v>922</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -4479,23 +4347,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>957</v>
+        <v>923</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>959</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>960</v>
+        <v>926</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>961</v>
+        <v>927</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -4503,30 +4371,30 @@
         <v>62</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>962</v>
+        <v>928</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>963</v>
+        <v>929</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>965</v>
+        <v>931</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>966</v>
+        <v>932</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>967</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
@@ -4534,10 +4402,10 @@
         <v>62</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>968</v>
+        <v>934</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>969</v>
+        <v>935</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -4548,13 +4416,13 @@
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4617,20 +4485,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>971</v>
+        <v>937</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>973</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>974</v>
+        <v>940</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4641,10 +4509,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>975</v>
+        <v>941</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>976</v>
+        <v>942</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -4652,7 +4520,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4663,10 +4531,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>978</v>
+        <v>944</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -4679,10 +4547,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>980</v>
+        <v>946</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>981</v>
+        <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -4690,30 +4558,30 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>982</v>
+        <v>948</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>983</v>
+        <v>949</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>984</v>
+        <v>950</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>985</v>
+        <v>951</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>986</v>
+        <v>952</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>987</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4721,30 +4589,30 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>988</v>
+        <v>954</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>989</v>
+        <v>955</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>990</v>
+        <v>956</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>991</v>
+        <v>957</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>992</v>
+        <v>958</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>993</v>
+        <v>959</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4752,10 +4620,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>994</v>
+        <v>960</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>995</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4765,37 +4633,37 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>996</v>
+        <v>962</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>998</v>
+        <v>963</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>999</v>
+        <v>964</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1001</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>1002</v>
+        <v>967</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>1003</v>
+        <v>968</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>45</v>
@@ -4806,10 +4674,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1004</v>
+        <v>969</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1005</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4817,10 +4685,10 @@
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>1006</v>
+        <v>971</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1007</v>
+        <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -4828,10 +4696,10 @@
         <v>62</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1008</v>
+        <v>973</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1009</v>
+        <v>974</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -4841,79 +4709,79 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>1010</v>
+        <v>975</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>1011</v>
+        <v>976</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>1016</v>
+        <v>976</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>1011</v>
+        <v>976</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>1017</v>
+        <v>979</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>1011</v>
+        <v>976</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1019</v>
+        <v>981</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -4921,10 +4789,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1020</v>
+        <v>982</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1021</v>
+        <v>983</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
@@ -4934,24 +4802,24 @@
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>1022</v>
+        <v>984</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>1023</v>
+        <v>984</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1024</v>
+        <v>985</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>1025</v>
+        <v>986</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1026</v>
+        <v>987</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -4959,35 +4827,35 @@
         <v>62</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1027</v>
+        <v>988</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1028</v>
+        <v>989</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11" t="s">
-        <v>1029</v>
+        <v>990</v>
       </c>
       <c r="AA48" s="6" t="s">
-        <v>1030</v>
+        <v>990</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>1031</v>
+        <v>991</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>1032</v>
+        <v>992</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1033</v>
+        <v>993</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1034</v>
+        <v>994</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="24" customHeight="1">
@@ -4995,51 +4863,51 @@
         <v>62</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1035</v>
+        <v>995</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1036</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>1037</v>
+        <v>997</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>1038</v>
+        <v>998</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>1039</v>
+        <v>997</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>1040</v>
+        <v>999</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="24" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>1041</v>
+        <v>1000</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>1042</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>1043</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>1044</v>
+        <v>1003</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>45</v>
@@ -5050,10 +4918,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1045</v>
+        <v>1004</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1046</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="24" customHeight="1">
@@ -5061,10 +4929,10 @@
     </row>
     <row r="62" spans="1:32" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>1047</v>
+        <v>1006</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1007</v>
+        <v>972</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="24" customHeight="1">
@@ -5072,10 +4940,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1049</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="24" customHeight="1">
@@ -5086,24 +4954,24 @@
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="B65" s="11"/>
       <c r="AA65" s="6" t="s">
-        <v>1050</v>
+        <v>1009</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>1051</v>
+        <v>1010</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>1052</v>
+        <v>1011</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>1053</v>
+        <v>1012</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>1019</v>
+        <v>981</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
@@ -5111,10 +4979,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>1054</v>
+        <v>1013</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1055</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -5125,18 +4993,18 @@
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="B70" s="11"/>
       <c r="AA70" s="6" t="s">
-        <v>1056</v>
+        <v>1015</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>1057</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>1058</v>
+        <v>1017</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1026</v>
+        <v>987</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
@@ -5144,30 +5012,30 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1059</v>
+        <v>1018</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1060</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>1030</v>
+        <v>990</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>1031</v>
+        <v>991</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>1061</v>
+        <v>1020</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1034</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
@@ -5175,31 +5043,31 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1063</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>1038</v>
+        <v>998</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>1039</v>
+        <v>997</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="AE78" s="6" t="s">
-        <v>1040</v>
+        <v>999</v>
       </c>
       <c r="AF78" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5264,20 +5132,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>1064</v>
+        <v>1023</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1065</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>1066</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5288,10 +5156,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1068</v>
+        <v>1027</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1069</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5299,7 +5167,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>1070</v>
+        <v>1029</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5310,10 +5178,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1071</v>
+        <v>1030</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1072</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5326,23 +5194,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>1073</v>
+        <v>1032</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1074</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>1075</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>1076</v>
+        <v>1035</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1077</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5350,10 +5218,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1078</v>
+        <v>1037</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5364,37 +5232,37 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>1080</v>
+        <v>1039</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>1081</v>
+        <v>1040</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>1082</v>
+        <v>1041</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1083</v>
+        <v>1042</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1084</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>1085</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>1086</v>
+        <v>1045</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -5402,40 +5270,40 @@
         <v>62</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1087</v>
+        <v>1046</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>1089</v>
+        <v>1048</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>1090</v>
+        <v>1049</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>1091</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>1092</v>
+        <v>1050</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1093</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1094</v>
+        <v>1052</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1095</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -5443,10 +5311,10 @@
     </row>
     <row r="34" spans="1:28" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>1096</v>
+        <v>1054</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1097</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
@@ -5454,36 +5322,36 @@
         <v>46</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1098</v>
+        <v>1056</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1099</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>1100</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>1101</v>
+        <v>1059</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1102</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>1103</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>1104</v>
+        <v>1062</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="24" customHeight="1">
@@ -5491,40 +5359,40 @@
         <v>62</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1105</v>
+        <v>1063</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1106</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>1107</v>
+        <v>1049</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>1090</v>
+        <v>1049</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1091</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>1108</v>
+        <v>1065</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1109</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1110</v>
+        <v>1067</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1111</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
@@ -5534,10 +5402,10 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1112</v>
+        <v>1069</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1113</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
@@ -5545,10 +5413,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1114</v>
+        <v>1071</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1115</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5556,10 +5424,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>1116</v>
+        <v>1073</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1117</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -5567,56 +5435,56 @@
         <v>62</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1118</v>
+        <v>1075</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1119</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>1120</v>
+        <v>1077</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>1120</v>
+        <v>1077</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>1121</v>
+        <v>1078</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>1122</v>
+        <v>1079</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>1123</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>1124</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>1125</v>
+        <v>1082</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1126</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1127</v>
+        <v>1084</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1128</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -5626,23 +5494,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>1129</v>
+        <v>1086</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1130</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>1131</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1132</v>
+        <v>1089</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1133</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -5650,10 +5518,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1134</v>
+        <v>1091</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1135</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -5666,10 +5534,10 @@
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>1136</v>
+        <v>1093</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1137</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -5677,24 +5545,24 @@
         <v>62</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1138</v>
+        <v>1095</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1139</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>1140</v>
+        <v>1097</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>1141</v>
+        <v>1098</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>1142</v>
+        <v>1097</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5955,21 +5823,21 @@
         <v>65</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
@@ -5977,10 +5845,10 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
@@ -5990,75 +5858,75 @@
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE25" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="AF25" s="6" t="s">
         <v>78</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AA26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE26" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="AF26" s="6" t="s">
         <v>78</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -6066,10 +5934,10 @@
         <v>46</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -6077,10 +5945,10 @@
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -6088,10 +5956,10 @@
         <v>46</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -6099,10 +5967,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -6110,10 +5978,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -6121,21 +5989,21 @@
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -6143,21 +6011,21 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6165,34 +6033,34 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -6202,21 +6070,21 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6224,21 +6092,21 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
@@ -6246,23 +6114,23 @@
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="24" customHeight="1">
@@ -6270,32 +6138,32 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA74" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AA74" s="6" t="s">
+      <c r="AB74" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AB74" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="AC74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
@@ -6303,10 +6171,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="24" customHeight="1">
@@ -6317,27 +6185,27 @@
     <row r="79" spans="1:31" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB79" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AB79" s="6" t="s">
+      <c r="AC79" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AC79" s="6" t="s">
+      <c r="AD79" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="AE79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -6345,10 +6213,10 @@
         <v>46</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -6356,23 +6224,23 @@
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -6380,10 +6248,10 @@
         <v>46</v>
       </c>
       <c r="B90" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -6396,10 +6264,10 @@
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -6407,10 +6275,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -6423,10 +6291,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -6434,10 +6302,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -6450,10 +6318,10 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -6461,10 +6329,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -6528,20 +6396,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6552,10 +6420,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6563,7 +6431,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6574,10 +6442,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6590,23 +6458,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -6614,32 +6482,32 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="AB19" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -6647,35 +6515,35 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
@@ -6683,33 +6551,33 @@
         <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
@@ -6717,35 +6585,35 @@
         <v>62</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -6753,49 +6621,49 @@
         <v>62</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -6803,10 +6671,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
@@ -6817,22 +6685,22 @@
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="11"/>
       <c r="AA44" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE44" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AB44" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC44" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD44" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE44" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="AF44" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6876,20 +6744,20 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6900,10 +6768,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
@@ -6911,7 +6779,7 @@
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6922,10 +6790,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
@@ -6938,10 +6806,10 @@
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
@@ -6949,53 +6817,53 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD15" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AA15" s="6" t="s">
+      <c r="AE15" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AB15" s="6" t="s">
+      <c r="AF15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG15" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AC15" s="6" t="s">
+      <c r="AH15" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AI15" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AE15" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="AJ15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
@@ -7003,10 +6871,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
@@ -7016,331 +6884,331 @@
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE20" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AF20" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AG20" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AH20" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AI20" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AE20" s="6" t="s">
+      <c r="AJ20" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AK20" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL20" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AG20" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL20" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AM20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AA21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF21" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AG21" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AH21" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AI21" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AJ21" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AK21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL21" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AG21" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK21" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL21" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AM21" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AA22" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF22" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AB22" s="6" t="s">
+      <c r="AG22" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AC22" s="6" t="s">
+      <c r="AH22" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AI22" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AE22" s="6" t="s">
+      <c r="AJ22" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AF22" s="6" t="s">
+      <c r="AK22" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL22" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AG22" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK22" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL22" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AM22" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AA23" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF23" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AG23" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AH23" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AI23" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AE23" s="6" t="s">
+      <c r="AJ23" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AF23" s="6" t="s">
+      <c r="AK23" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL23" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AG23" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL23" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AM23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="AA24" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF24" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AB24" s="6" t="s">
+      <c r="AG24" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AC24" s="6" t="s">
+      <c r="AH24" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AI24" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AE24" s="6" t="s">
+      <c r="AJ24" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AK24" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL24" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AG24" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK24" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL24" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AM24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AA25" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF25" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AH25" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AI25" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL25" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AG25" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AM25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="AA26" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AB26" s="6" t="s">
+      <c r="AG26" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AC26" s="6" t="s">
+      <c r="AH26" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AI26" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AJ26" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AK26" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL26" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AG26" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL26" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AM26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -7348,32 +7216,32 @@
         <v>62</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
@@ -7381,23 +7249,23 @@
         <v>46</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -7405,36 +7273,36 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="B42" s="11" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7442,43 +7310,43 @@
         <v>62</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -7486,23 +7354,23 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7510,43 +7378,43 @@
         <v>62</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="B62" s="11"/>
       <c r="AA62" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:39" ht="24" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:39" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:39" ht="24" customHeight="1">
@@ -7554,39 +7422,39 @@
         <v>62</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:39" ht="24" customHeight="1">
       <c r="B70" s="11"/>
       <c r="AA70" s="6" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="AE70" s="6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="AF70" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:39" ht="24" customHeight="1">
@@ -7594,10 +7462,10 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:39" ht="24" customHeight="1">
@@ -7607,54 +7475,54 @@
     </row>
     <row r="75" spans="1:39" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="AG75" s="6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AH75" s="6" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="AI75" s="6" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="AJ75" s="6" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="AK75" s="6" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="AL75" s="6" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="AM75" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:39" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:39" ht="24" customHeight="1">
@@ -7662,10 +7530,10 @@
         <v>62</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:39" ht="24" customHeight="1">
@@ -7675,24 +7543,24 @@
     </row>
     <row r="80" spans="1:39" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="AC80" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
@@ -7700,43 +7568,43 @@
         <v>62</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="B88" s="13" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
@@ -7744,33 +7612,33 @@
         <v>62</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="B92" s="11"/>
       <c r="AA92" s="6" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AD92" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7778,10 +7646,10 @@
         <v>62</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
@@ -7791,33 +7659,33 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="AF97" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
@@ -7825,36 +7693,36 @@
         <v>62</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="11"/>
       <c r="AA101" s="6" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="AB101" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AC101" s="6" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="AE101" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
@@ -7862,10 +7730,10 @@
         <v>62</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
@@ -7875,36 +7743,36 @@
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="B106" s="11" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AA106" s="6" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AB106" s="6" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AC106" s="6" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="AD106" s="6" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="AE106" s="6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AF106" s="6" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AG106" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
@@ -7912,19 +7780,19 @@
         <v>62</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8010,20 +7878,20 @@
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8034,10 +7902,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
@@ -8045,7 +7913,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8056,10 +7924,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
@@ -8072,10 +7940,10 @@
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
@@ -8083,10 +7951,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="24" customHeight="1">
@@ -8096,255 +7964,255 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AN18" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>45</v>
@@ -8355,10 +8223,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="24" customHeight="1">
@@ -8366,10 +8234,10 @@
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
@@ -8377,35 +8245,35 @@
         <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -8413,10 +8281,10 @@
         <v>62</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -8427,41 +8295,41 @@
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -8471,10 +8339,10 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
@@ -8482,10 +8350,10 @@
         <v>62</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
@@ -8496,34 +8364,34 @@
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11"/>
       <c r="AA46" s="6" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:44" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:44" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:44" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:44" ht="24" customHeight="1">
@@ -8531,10 +8399,10 @@
         <v>62</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:44" ht="24" customHeight="1">
@@ -8545,45 +8413,45 @@
     <row r="55" spans="1:44" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="AJ55" s="6" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AK55" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:44" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:44" ht="24" customHeight="1">
@@ -8591,10 +8459,10 @@
         <v>62</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="24" customHeight="1">
@@ -8605,66 +8473,66 @@
     <row r="60" spans="1:44" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="AF60" s="6" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AJ60" s="6" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="AK60" s="6" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="AL60" s="6" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="AM60" s="6" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="AN60" s="6" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="AO60" s="6" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="AP60" s="6" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="AQ60" s="6" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="AR60" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:44" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="24" customHeight="1">
@@ -8672,10 +8540,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:44" ht="24" customHeight="1">
@@ -8686,97 +8554,97 @@
     <row r="65" spans="1:50" ht="24" customHeight="1">
       <c r="B65" s="11"/>
       <c r="AA65" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC65" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE65" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF65" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG65" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH65" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI65" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ65" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK65" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL65" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM65" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN65" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO65" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AP65" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AQ65" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AR65" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AS65" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AT65" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU65" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="AB65" s="6" t="s">
+      <c r="AV65" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="AC65" s="6" t="s">
+      <c r="AW65" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="AD65" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE65" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF65" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="AG65" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="AH65" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="AI65" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="AJ65" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="AK65" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="AL65" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="AM65" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="AN65" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="AO65" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="AP65" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="AQ65" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="AR65" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="AS65" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="AT65" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="AU65" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AV65" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="AW65" s="6" t="s">
-        <v>517</v>
-      </c>
       <c r="AX65" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:50" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:50" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:50" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:50" ht="24" customHeight="1">
@@ -8784,10 +8652,10 @@
         <v>62</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:50" ht="24" customHeight="1">
@@ -8798,36 +8666,36 @@
     <row r="74" spans="1:50" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="AE74" s="6" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="AF74" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AG74" s="6" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:50" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:50" ht="24" customHeight="1">
@@ -8835,10 +8703,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:50" ht="24" customHeight="1">
@@ -8849,43 +8717,43 @@
     <row r="79" spans="1:50" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="AE79" s="6" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AF79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
@@ -8893,10 +8761,10 @@
         <v>62</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8907,27 +8775,27 @@
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
@@ -8935,10 +8803,10 @@
         <v>62</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
@@ -8949,34 +8817,34 @@
     <row r="93" spans="1:31" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="B97" s="13" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
@@ -8984,46 +8852,46 @@
         <v>62</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="11"/>
       <c r="AA101" s="6" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="AB101" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="AC101" s="6" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="B105" s="13" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
@@ -9031,10 +8899,10 @@
         <v>62</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
@@ -9045,33 +8913,33 @@
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="AE110" s="6" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="AF110" s="6" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="AG110" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:32" ht="24" customHeight="1">
@@ -9079,10 +8947,10 @@
         <v>62</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
     </row>
     <row r="114" spans="1:32" ht="24" customHeight="1">
@@ -9093,40 +8961,40 @@
     <row r="115" spans="1:32" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="AC115" s="6" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="AD115" s="6" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="AE115" s="6" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AF115" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:32" ht="24" customHeight="1">
       <c r="A118" s="12" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="24" customHeight="1">
       <c r="B119" s="13" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:32" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>45</v>
@@ -9137,10 +9005,10 @@
         <v>46</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:32" ht="24" customHeight="1">
@@ -9148,10 +9016,10 @@
     </row>
     <row r="125" spans="1:32" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="24" customHeight="1">
@@ -9159,35 +9027,35 @@
         <v>62</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:32" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="AA127" s="6" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="AD127" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:32" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="1:32" ht="24" customHeight="1">
@@ -9195,10 +9063,10 @@
         <v>62</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131" spans="1:32" ht="24" customHeight="1">
@@ -9209,41 +9077,41 @@
     <row r="132" spans="1:32" ht="24" customHeight="1">
       <c r="B132" s="11"/>
       <c r="AA132" s="6" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="AB132" s="6" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="AC132" s="6" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AD132" s="6" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AE132" s="6" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="AF132" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:32" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:32" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:32" ht="24" customHeight="1">
@@ -9253,10 +9121,10 @@
     </row>
     <row r="138" spans="1:32" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:32" ht="24" customHeight="1">
@@ -9264,10 +9132,10 @@
         <v>62</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" spans="1:32" ht="24" customHeight="1">
@@ -9278,34 +9146,34 @@
     <row r="141" spans="1:32" ht="24" customHeight="1">
       <c r="B141" s="11"/>
       <c r="AA141" s="6" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AB141" s="6" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="AC141" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:32" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="145" spans="1:50" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="1:50" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="1:50" ht="24" customHeight="1">
@@ -9313,10 +9181,10 @@
         <v>62</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:50" ht="24" customHeight="1">
@@ -9327,45 +9195,45 @@
     <row r="150" spans="1:50" ht="24" customHeight="1">
       <c r="B150" s="11"/>
       <c r="AA150" s="6" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AB150" s="6" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="AC150" s="6" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="AD150" s="6" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AE150" s="6" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="AF150" s="6" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AG150" s="6" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="AH150" s="6" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AI150" s="6" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="AJ150" s="6" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AK150" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:50" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:50" ht="24" customHeight="1">
@@ -9373,10 +9241,10 @@
         <v>62</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
     </row>
     <row r="154" spans="1:50" ht="24" customHeight="1">
@@ -9387,66 +9255,66 @@
     <row r="155" spans="1:50" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="6" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB155" s="6" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="AC155" s="6" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="AD155" s="6" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="AE155" s="6" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="AF155" s="6" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AG155" s="6" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="AI155" s="6" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AJ155" s="6" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="AK155" s="6" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="AL155" s="6" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="AN155" s="6" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="AO155" s="6" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="AP155" s="6" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="AQ155" s="6" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="AR155" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:50" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:50" ht="24" customHeight="1">
@@ -9454,10 +9322,10 @@
         <v>62</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
     </row>
     <row r="159" spans="1:50" ht="24" customHeight="1">
@@ -9468,97 +9336,97 @@
     <row r="160" spans="1:50" ht="24" customHeight="1">
       <c r="B160" s="11"/>
       <c r="AA160" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB160" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC160" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD160" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE160" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF160" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG160" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH160" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI160" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ160" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK160" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL160" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM160" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN160" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO160" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AP160" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AQ160" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AR160" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AS160" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AT160" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU160" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="AB160" s="6" t="s">
+      <c r="AV160" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="AC160" s="6" t="s">
+      <c r="AW160" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="AD160" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE160" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF160" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="AG160" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="AH160" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="AI160" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="AJ160" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="AK160" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="AL160" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="AM160" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="AN160" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="AO160" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="AP160" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="AQ160" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="AR160" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="AS160" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="AT160" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="AU160" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AV160" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="AW160" s="6" t="s">
-        <v>517</v>
-      </c>
       <c r="AX160" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:34" ht="24" customHeight="1">
       <c r="A163" s="12" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
     </row>
     <row r="164" spans="1:34" ht="24" customHeight="1">
       <c r="B164" s="13" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
     </row>
     <row r="166" spans="1:34" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="1:34" ht="24" customHeight="1">
@@ -9566,10 +9434,10 @@
         <v>62</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
     </row>
     <row r="168" spans="1:34" ht="24" customHeight="1">
@@ -9580,36 +9448,36 @@
     <row r="169" spans="1:34" ht="24" customHeight="1">
       <c r="B169" s="11"/>
       <c r="AA169" s="6" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AB169" s="6" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="AC169" s="6" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="AD169" s="6" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="AE169" s="6" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="AF169" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AG169" s="6" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="AH169" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:34" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="172" spans="1:34" ht="24" customHeight="1">
@@ -9617,10 +9485,10 @@
         <v>62</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" spans="1:34" ht="24" customHeight="1">
@@ -9631,43 +9499,43 @@
     <row r="174" spans="1:34" ht="24" customHeight="1">
       <c r="B174" s="11"/>
       <c r="AA174" s="6" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="AB174" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="AC174" s="6" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="AD174" s="6" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="AE174" s="6" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AF174" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:31" ht="24" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="1:31" ht="24" customHeight="1">
       <c r="B178" s="13" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="1:31" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:31" ht="24" customHeight="1">
@@ -9675,10 +9543,10 @@
         <v>62</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
     </row>
     <row r="182" spans="1:31" ht="24" customHeight="1">
@@ -9689,27 +9557,27 @@
     <row r="183" spans="1:31" ht="24" customHeight="1">
       <c r="B183" s="11"/>
       <c r="AA183" s="6" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="AD183" s="6" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="AE183" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:31" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:31" ht="24" customHeight="1">
@@ -9717,10 +9585,10 @@
         <v>62</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
     </row>
     <row r="187" spans="1:31" ht="24" customHeight="1">
@@ -9731,34 +9599,34 @@
     <row r="188" spans="1:31" ht="24" customHeight="1">
       <c r="B188" s="11"/>
       <c r="AA188" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="AB188" s="6" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="AC188" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:31" ht="24" customHeight="1">
       <c r="A191" s="12" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
     </row>
     <row r="192" spans="1:31" ht="24" customHeight="1">
       <c r="B192" s="13" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
       <c r="A194" s="9" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
@@ -9766,46 +9634,46 @@
         <v>62</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
     </row>
     <row r="196" spans="1:33" ht="24" customHeight="1">
       <c r="B196" s="11"/>
       <c r="AA196" s="6" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="AB196" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="AC196" s="6" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="AD196" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
       <c r="B200" s="13" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -9813,10 +9681,10 @@
         <v>62</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -9827,33 +9695,33 @@
     <row r="205" spans="1:33" ht="24" customHeight="1">
       <c r="B205" s="11"/>
       <c r="AA205" s="6" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AB205" s="6" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="AD205" s="6" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="AF205" s="6" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="AG205" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -9861,10 +9729,10 @@
         <v>62</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
     </row>
     <row r="209" spans="2:32" ht="24" customHeight="1">
@@ -9875,22 +9743,22 @@
     <row r="210" spans="2:32" ht="24" customHeight="1">
       <c r="B210" s="11"/>
       <c r="AA210" s="6" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="AB210" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="AC210" s="6" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="AD210" s="6" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="AE210" s="6" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AF210" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -10015,20 +9883,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -10039,10 +9907,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -10050,7 +9918,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -10061,10 +9929,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -10077,23 +9945,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="24" customHeight="1">
@@ -10101,33 +9969,33 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="24" customHeight="1">
@@ -10135,10 +10003,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="24" customHeight="1">
@@ -10148,59 +10016,59 @@
     </row>
     <row r="24" spans="1:37" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="24" customHeight="1">
@@ -10208,21 +10076,21 @@
     </row>
     <row r="30" spans="1:37" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="24" customHeight="1">
@@ -10232,23 +10100,23 @@
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
@@ -10256,23 +10124,23 @@
         <v>46</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -10280,10 +10148,10 @@
         <v>62</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="24" customHeight="1">
@@ -10293,27 +10161,27 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
@@ -10321,10 +10189,10 @@
         <v>62</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="24" customHeight="1">
@@ -10335,30 +10203,30 @@
     <row r="50" spans="1:36" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="AF50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="24" customHeight="1">
@@ -10366,10 +10234,10 @@
         <v>62</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="24" customHeight="1">
@@ -10379,115 +10247,115 @@
     </row>
     <row r="55" spans="1:36" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="AJ55" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:36" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="AE56" s="6" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="AF56" s="6" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="AI56" s="6" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="AJ56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:36" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="AE57" s="6" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="AF57" s="6" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="AI57" s="6" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="AJ57" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:36" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:36" ht="24" customHeight="1">
@@ -10495,10 +10363,10 @@
         <v>62</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
     </row>
     <row r="61" spans="1:36" ht="24" customHeight="1">
@@ -10509,37 +10377,37 @@
     <row r="62" spans="1:36" ht="24" customHeight="1">
       <c r="B62" s="11"/>
       <c r="AA62" s="6" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -10547,10 +10415,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -10558,10 +10426,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -10569,10 +10437,10 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -10583,21 +10451,21 @@
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -10605,35 +10473,35 @@
         <v>62</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -10641,10 +10509,10 @@
         <v>62</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -10655,30 +10523,30 @@
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="AE84" s="6" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="AF84" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -10686,10 +10554,10 @@
         <v>62</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -10700,16 +10568,16 @@
     <row r="89" spans="1:32" ht="24" customHeight="1">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="AC89" s="6" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -10777,20 +10645,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -10801,10 +10669,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -10812,7 +10680,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -10823,10 +10691,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -10839,23 +10707,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
@@ -10863,23 +10731,23 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -10887,10 +10755,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -10900,63 +10768,63 @@
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -10964,23 +10832,23 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
@@ -10988,10 +10856,10 @@
         <v>62</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
@@ -11001,98 +10869,98 @@
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>789</v>
+        <v>760</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>790</v>
+        <v>761</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>789</v>
+        <v>760</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>790</v>
+        <v>761</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>789</v>
+        <v>760</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>790</v>
+        <v>761</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -11133,20 +11001,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>794</v>
+        <v>763</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>796</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>797</v>
+        <v>766</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -11157,10 +11025,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -11168,7 +11036,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -11179,10 +11047,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>802</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -11195,10 +11063,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -11206,10 +11074,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -11220,21 +11088,21 @@
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>808</v>
+        <v>777</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>809</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
@@ -11242,23 +11110,23 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>811</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>812</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>813</v>
+        <v>782</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -11266,10 +11134,10 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>814</v>
+        <v>783</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>815</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -11279,27 +11147,27 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
@@ -11307,10 +11175,10 @@
         <v>62</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>820</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -11321,36 +11189,36 @@
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -11358,10 +11226,10 @@
         <v>62</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>828</v>
+        <v>797</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>829</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -11372,43 +11240,43 @@
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>831</v>
+        <v>800</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>834</v>
+        <v>803</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>835</v>
+        <v>804</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -11416,36 +11284,36 @@
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="B43" s="11"/>
       <c r="AA43" s="6" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="AE43" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
@@ -11453,10 +11321,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -11464,23 +11332,23 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>852</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
@@ -11488,29 +11356,29 @@
         <v>62</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>855</v>
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>856</v>
+        <v>776</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
@@ -11518,34 +11386,34 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
@@ -11553,10 +11421,10 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
@@ -11564,10 +11432,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
@@ -11577,51 +11445,51 @@
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
       <c r="B69" s="11" t="s">
-        <v>874</v>
+        <v>839</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
       <c r="B73" s="13" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -11629,27 +11497,27 @@
         <v>62</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>879</v>
+        <v>845</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>880</v>
+        <v>846</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -11657,10 +11525,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>882</v>
+        <v>848</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>883</v>
+        <v>849</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="24" customHeight="1">
@@ -11668,21 +11536,21 @@
     </row>
     <row r="83" spans="1:29" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>885</v>
+        <v>851</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="24" customHeight="1">
@@ -11690,10 +11558,10 @@
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>887</v>
+        <v>853</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
@@ -11701,10 +11569,10 @@
         <v>62</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>888</v>
+        <v>854</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>889</v>
+        <v>855</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="24" customHeight="1">
@@ -11715,13 +11583,13 @@
     <row r="90" spans="1:29" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
